--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A571555-11A5-4F5D-89F0-FFA6CC1FC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50D1EC-DCA2-40C2-BA9A-3F56695FBB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
+    <workbookView xWindow="390" yWindow="900" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,8 +223,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>550</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       </c>
       <c r="D4" s="2">
         <f>D3*D2</f>
-        <v>1393535.0000000002</v>
+        <v>1512618.9000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>1357249.0000000002</v>
+        <v>1476332.9000000001</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +743,10 @@
   <dimension ref="A1:DK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,9 @@
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" x14ac:dyDescent="0.25">
@@ -873,7 +875,7 @@
         <v>116609</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5:T5" si="1">SUM(N2:N4)</f>
+        <f t="shared" ref="N5:O5" si="1">SUM(N2:N4)</f>
         <v>134902</v>
       </c>
       <c r="O5" s="3">
@@ -916,23 +918,23 @@
       </c>
       <c r="P6" s="2">
         <f>P5*(1-P23)</f>
-        <v>33617.802000000018</v>
+        <v>33755.605200000005</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:T6" si="3">Q5*(1-Q23)</f>
-        <v>37446.988253400028</v>
+        <v>38481.389928000004</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="3"/>
-        <v>41684.437094200446</v>
+        <v>43868.784517920001</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v>46368.681402424656</v>
+        <v>50010.414350428793</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="3"/>
-        <v>51540.935161661044</v>
+        <v>57011.872359488822</v>
       </c>
     </row>
     <row r="7" spans="1:111" x14ac:dyDescent="0.25">
@@ -953,23 +955,23 @@
       </c>
       <c r="P7" s="2">
         <f t="shared" si="4"/>
-        <v>153913.33799999996</v>
+        <v>153775.53479999996</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="4"/>
-        <v>176338.51134659993</v>
+        <v>175304.10967199993</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="4"/>
-        <v>202031.03244979947</v>
+        <v>199846.68502607994</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="4"/>
-        <v>231466.95387773524</v>
+        <v>227825.22092973109</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="4"/>
-        <v>265191.68905772117</v>
+        <v>259720.75185989341</v>
       </c>
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.25">
@@ -1023,7 +1025,7 @@
         <v>62416</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:T11" si="5">SUM(N8:N10)</f>
+        <f t="shared" ref="N11:O11" si="5">SUM(N8:N10)</f>
         <v>62192</v>
       </c>
       <c r="O11" s="2">
@@ -1031,24 +1033,24 @@
         <v>64960</v>
       </c>
       <c r="P11" s="2">
-        <f>O11*(1+P20)</f>
-        <v>74054.399999999994</v>
+        <f>O11*1.06</f>
+        <v>68857.600000000006</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11:T11" si="6">P11*(1+Q20)</f>
-        <v>84422.015999999989</v>
+        <f t="shared" ref="Q11:T11" si="6">P11*1.06</f>
+        <v>72989.056000000011</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="6"/>
-        <v>96241.098239999978</v>
+        <v>77368.39936000001</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" si="6"/>
-        <v>109714.85199359996</v>
+        <v>82010.503321600016</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="6"/>
-        <v>125074.93127270395</v>
+        <v>86931.133520896023</v>
       </c>
     </row>
     <row r="12" spans="1:111" x14ac:dyDescent="0.25">
@@ -1069,23 +1071,23 @@
       </c>
       <c r="P12" s="2">
         <f t="shared" si="7"/>
-        <v>79858.937999999966</v>
+        <v>84917.934799999959</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>91916.495346599942</v>
+        <v>102315.05367199992</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="7"/>
-        <v>105789.9342097995</v>
+        <v>122478.28566607993</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="7"/>
-        <v>121752.10188413528</v>
+        <v>145814.71760813106</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="7"/>
-        <v>140116.75778501722</v>
+        <v>172789.61833899739</v>
       </c>
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.25">
@@ -1106,20 +1108,20 @@
         <v>2177.16</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" ref="Q13:T13" si="8">P31*$W$19</f>
-        <v>6164.1143627999982</v>
+        <f>P31*$W$19</f>
+        <v>6305.4674935199973</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="8"/>
-        <v>10930.831994676833</v>
+        <f>Q31*$W$19</f>
+        <v>11454.080196765641</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="8"/>
-        <v>16603.461232214384</v>
+        <f>R31*$W$19</f>
+        <v>17802.47433866452</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="8"/>
-        <v>23327.541599668977</v>
+        <f>S31*$W$19</f>
+        <v>25557.929236942633</v>
       </c>
     </row>
     <row r="14" spans="1:111" x14ac:dyDescent="0.25">
@@ -1131,32 +1133,32 @@
         <v>28819</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" ref="N14:T14" si="9">N12+N13</f>
+        <f t="shared" ref="N14:T14" si="8">N12+N13</f>
         <v>47428</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>70663</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="9"/>
-        <v>82036.097999999969</v>
+        <f t="shared" si="8"/>
+        <v>87095.094799999963</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="9"/>
-        <v>98080.609709399941</v>
+        <f t="shared" si="8"/>
+        <v>108620.52116551992</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="9"/>
-        <v>116720.76620447633</v>
+        <f t="shared" si="8"/>
+        <v>133932.36586284556</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="9"/>
-        <v>138355.56311634966</v>
+        <f t="shared" si="8"/>
+        <v>163617.19194679559</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="9"/>
-        <v>163444.29938468619</v>
+        <f t="shared" si="8"/>
+        <v>198347.54757594003</v>
       </c>
     </row>
     <row r="15" spans="1:111" x14ac:dyDescent="0.25">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="P15" s="2">
         <f>P14*P21</f>
-        <v>15586.858619999994</v>
+        <v>18289.969907999992</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:T15" si="10">Q14*Q21</f>
-        <v>18635.31584478599</v>
+        <f t="shared" ref="Q15:T15" si="9">Q14*Q21</f>
+        <v>22810.309444759183</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="10"/>
-        <v>22176.945578850504</v>
+        <f t="shared" si="9"/>
+        <v>28125.796831197567</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="10"/>
-        <v>26287.556992106434</v>
+        <f t="shared" si="9"/>
+        <v>34359.610308827076</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="10"/>
-        <v>31054.416883090376</v>
+        <f t="shared" si="9"/>
+        <v>41652.984990947407</v>
       </c>
     </row>
     <row r="16" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1202,402 +1204,409 @@
         <v>23200</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" ref="N16:T16" si="11">N14-N15</f>
+        <f t="shared" ref="N16:T16" si="10">N14-N15</f>
         <v>39098</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>62360</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="11"/>
-        <v>66449.23937999997</v>
+        <f t="shared" si="10"/>
+        <v>68805.124891999963</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="11"/>
-        <v>79445.293864613952</v>
+        <f t="shared" si="10"/>
+        <v>85810.211720760737</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="11"/>
-        <v>94543.820625625827</v>
+        <f t="shared" si="10"/>
+        <v>105806.56903164799</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="11"/>
-        <v>112068.00612424323</v>
+        <f t="shared" si="10"/>
+        <v>129257.58163796851</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="11"/>
-        <v>132389.88250159583</v>
+        <f t="shared" si="10"/>
+        <v>156694.56258499261</v>
       </c>
       <c r="U16" s="3">
-        <f>T16*(1+$W$20)</f>
-        <v>133713.78132661179</v>
+        <f t="shared" ref="U16:AZ16" si="11">T16*(1+$W$20)</f>
+        <v>158261.50821084256</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ref="V16:CG16" si="12">U16*(1+$W$20)</f>
-        <v>135050.91913987789</v>
+        <f t="shared" si="11"/>
+        <v>159844.12329295097</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="12"/>
-        <v>136401.42833127666</v>
+        <f t="shared" si="11"/>
+        <v>161442.56452588047</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="12"/>
-        <v>137765.44261458944</v>
+        <f t="shared" si="11"/>
+        <v>163056.99017113927</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="12"/>
-        <v>139143.09704073533</v>
+        <f t="shared" si="11"/>
+        <v>164687.56007285067</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="12"/>
-        <v>140534.52801114268</v>
+        <f t="shared" si="11"/>
+        <v>166334.43567357917</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="12"/>
-        <v>141939.8732912541</v>
+        <f t="shared" si="11"/>
+        <v>167997.78003031496</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="12"/>
-        <v>143359.27202416665</v>
+        <f t="shared" si="11"/>
+        <v>169677.75783061809</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="12"/>
-        <v>144792.86474440832</v>
+        <f t="shared" si="11"/>
+        <v>171374.53540892428</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="12"/>
-        <v>146240.79339185241</v>
+        <f t="shared" si="11"/>
+        <v>173088.28076301352</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="12"/>
-        <v>147703.20132577093</v>
+        <f t="shared" si="11"/>
+        <v>174819.16357064366</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="12"/>
-        <v>149180.23333902864</v>
+        <f t="shared" si="11"/>
+        <v>176567.3552063501</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="12"/>
-        <v>150672.03567241892</v>
+        <f t="shared" si="11"/>
+        <v>178333.02875841359</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="12"/>
-        <v>152178.75602914311</v>
+        <f t="shared" si="11"/>
+        <v>180116.35904599773</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="12"/>
-        <v>153700.54358943456</v>
+        <f t="shared" si="11"/>
+        <v>181917.5226364577</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="12"/>
-        <v>155237.54902532892</v>
+        <f t="shared" si="11"/>
+        <v>183736.69786282227</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="12"/>
-        <v>156789.92451558221</v>
+        <f t="shared" si="11"/>
+        <v>185574.06484145048</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="12"/>
-        <v>158357.82376073804</v>
+        <f t="shared" si="11"/>
+        <v>187429.80548986499</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="12"/>
-        <v>159941.40199834542</v>
+        <f t="shared" si="11"/>
+        <v>189304.10354476364</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="12"/>
-        <v>161540.81601832889</v>
+        <f t="shared" si="11"/>
+        <v>191197.14458021129</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="12"/>
-        <v>163156.22417851217</v>
+        <f t="shared" si="11"/>
+        <v>193109.11602601339</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="12"/>
-        <v>164787.78642029729</v>
+        <f t="shared" si="11"/>
+        <v>195040.20718627353</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="12"/>
-        <v>166435.66428450026</v>
+        <f t="shared" si="11"/>
+        <v>196990.60925813628</v>
       </c>
       <c r="AR16" s="3">
-        <f t="shared" si="12"/>
-        <v>168100.02092734526</v>
+        <f t="shared" si="11"/>
+        <v>198960.51535071764</v>
       </c>
       <c r="AS16" s="3">
-        <f t="shared" si="12"/>
-        <v>169781.02113661871</v>
+        <f t="shared" si="11"/>
+        <v>200950.12050422482</v>
       </c>
       <c r="AT16" s="3">
-        <f t="shared" si="12"/>
-        <v>171478.8313479849</v>
+        <f t="shared" si="11"/>
+        <v>202959.62170926706</v>
       </c>
       <c r="AU16" s="3">
-        <f t="shared" si="12"/>
-        <v>173193.61966146476</v>
+        <f t="shared" si="11"/>
+        <v>204989.21792635974</v>
       </c>
       <c r="AV16" s="3">
-        <f t="shared" si="12"/>
-        <v>174925.5558580794</v>
+        <f t="shared" si="11"/>
+        <v>207039.11010562335</v>
       </c>
       <c r="AW16" s="3">
-        <f t="shared" si="12"/>
-        <v>176674.8114166602</v>
+        <f t="shared" si="11"/>
+        <v>209109.50120667959</v>
       </c>
       <c r="AX16" s="3">
-        <f t="shared" si="12"/>
-        <v>178441.55953082681</v>
+        <f t="shared" si="11"/>
+        <v>211200.59621874639</v>
       </c>
       <c r="AY16" s="3">
-        <f t="shared" si="12"/>
-        <v>180225.97512613508</v>
+        <f t="shared" si="11"/>
+        <v>213312.60218093384</v>
       </c>
       <c r="AZ16" s="3">
-        <f t="shared" si="12"/>
-        <v>182028.23487739643</v>
+        <f t="shared" si="11"/>
+        <v>215445.72820274319</v>
       </c>
       <c r="BA16" s="3">
-        <f t="shared" si="12"/>
-        <v>183848.5172261704</v>
+        <f t="shared" ref="BA16:CF16" si="12">AZ16*(1+$W$20)</f>
+        <v>217600.18548477063</v>
       </c>
       <c r="BB16" s="3">
         <f t="shared" si="12"/>
-        <v>185687.00239843212</v>
+        <v>219776.18733961834</v>
       </c>
       <c r="BC16" s="3">
         <f t="shared" si="12"/>
-        <v>187543.87242241643</v>
+        <v>221973.94921301451</v>
       </c>
       <c r="BD16" s="3">
         <f t="shared" si="12"/>
-        <v>189419.3111466406</v>
+        <v>224193.68870514465</v>
       </c>
       <c r="BE16" s="3">
         <f t="shared" si="12"/>
-        <v>191313.50425810702</v>
+        <v>226435.6255921961</v>
       </c>
       <c r="BF16" s="3">
         <f t="shared" si="12"/>
-        <v>193226.63930068808</v>
+        <v>228699.98184811807</v>
       </c>
       <c r="BG16" s="3">
         <f t="shared" si="12"/>
-        <v>195158.90569369498</v>
+        <v>230986.98166659925</v>
       </c>
       <c r="BH16" s="3">
         <f t="shared" si="12"/>
-        <v>197110.49475063194</v>
+        <v>233296.85148326526</v>
       </c>
       <c r="BI16" s="3">
         <f t="shared" si="12"/>
-        <v>199081.59969813828</v>
+        <v>235629.81999809793</v>
       </c>
       <c r="BJ16" s="3">
         <f t="shared" si="12"/>
-        <v>201072.41569511965</v>
+        <v>237986.11819807891</v>
       </c>
       <c r="BK16" s="3">
         <f t="shared" si="12"/>
-        <v>203083.13985207086</v>
+        <v>240365.9793800597</v>
       </c>
       <c r="BL16" s="3">
         <f t="shared" si="12"/>
-        <v>205113.97125059157</v>
+        <v>242769.63917386028</v>
       </c>
       <c r="BM16" s="3">
         <f t="shared" si="12"/>
-        <v>207165.11096309748</v>
+        <v>245197.33556559889</v>
       </c>
       <c r="BN16" s="3">
         <f t="shared" si="12"/>
-        <v>209236.76207272845</v>
+        <v>247649.30892125488</v>
       </c>
       <c r="BO16" s="3">
         <f t="shared" si="12"/>
-        <v>211329.12969345573</v>
+        <v>250125.80201046742</v>
       </c>
       <c r="BP16" s="3">
         <f t="shared" si="12"/>
-        <v>213442.4209903903</v>
+        <v>252627.06003057209</v>
       </c>
       <c r="BQ16" s="3">
         <f t="shared" si="12"/>
-        <v>215576.84520029419</v>
+        <v>255153.33063087781</v>
       </c>
       <c r="BR16" s="3">
         <f t="shared" si="12"/>
-        <v>217732.61365229715</v>
+        <v>257704.8639371866</v>
       </c>
       <c r="BS16" s="3">
         <f t="shared" si="12"/>
-        <v>219909.93978882013</v>
+        <v>260281.91257655848</v>
       </c>
       <c r="BT16" s="3">
         <f t="shared" si="12"/>
-        <v>222109.03918670834</v>
+        <v>262884.73170232406</v>
       </c>
       <c r="BU16" s="3">
         <f t="shared" si="12"/>
-        <v>224330.12957857543</v>
+        <v>265513.57901934732</v>
       </c>
       <c r="BV16" s="3">
         <f t="shared" si="12"/>
-        <v>226573.43087436119</v>
+        <v>268168.71480954078</v>
       </c>
       <c r="BW16" s="3">
         <f t="shared" si="12"/>
-        <v>228839.16518310481</v>
+        <v>270850.40195763618</v>
       </c>
       <c r="BX16" s="3">
         <f t="shared" si="12"/>
-        <v>231127.55683493585</v>
+        <v>273558.90597721253</v>
       </c>
       <c r="BY16" s="3">
         <f t="shared" si="12"/>
-        <v>233438.83240328523</v>
+        <v>276294.49503698468</v>
       </c>
       <c r="BZ16" s="3">
         <f t="shared" si="12"/>
-        <v>235773.22072731808</v>
+        <v>279057.4399873545</v>
       </c>
       <c r="CA16" s="3">
         <f t="shared" si="12"/>
-        <v>238130.95293459127</v>
+        <v>281848.01438722806</v>
       </c>
       <c r="CB16" s="3">
         <f t="shared" si="12"/>
-        <v>240512.26246393719</v>
+        <v>284666.49453110032</v>
       </c>
       <c r="CC16" s="3">
         <f t="shared" si="12"/>
-        <v>242917.38508857656</v>
+        <v>287513.15947641135</v>
       </c>
       <c r="CD16" s="3">
         <f t="shared" si="12"/>
-        <v>245346.55893946232</v>
+        <v>290388.29107117548</v>
       </c>
       <c r="CE16" s="3">
         <f t="shared" si="12"/>
-        <v>247800.02452885694</v>
+        <v>293292.17398188723</v>
       </c>
       <c r="CF16" s="3">
         <f t="shared" si="12"/>
-        <v>250278.02477414551</v>
+        <v>296225.09572170611</v>
       </c>
       <c r="CG16" s="3">
-        <f t="shared" si="12"/>
-        <v>252780.80502188698</v>
+        <f t="shared" ref="CG16:DG16" si="13">CF16*(1+$W$20)</f>
+        <v>299187.34667892318</v>
       </c>
       <c r="CH16" s="3">
-        <f t="shared" ref="CH16:DG16" si="13">CG16*(1+$W$20)</f>
-        <v>255308.61307210586</v>
+        <f t="shared" si="13"/>
+        <v>302179.22014571243</v>
       </c>
       <c r="CI16" s="3">
         <f t="shared" si="13"/>
-        <v>257861.69920282692</v>
+        <v>305201.01234716957</v>
       </c>
       <c r="CJ16" s="3">
         <f t="shared" si="13"/>
-        <v>260440.3161948552</v>
+        <v>308253.02247064124</v>
       </c>
       <c r="CK16" s="3">
         <f t="shared" si="13"/>
-        <v>263044.71935680375</v>
+        <v>311335.55269534764</v>
       </c>
       <c r="CL16" s="3">
         <f t="shared" si="13"/>
-        <v>265675.1665503718</v>
+        <v>314448.90822230111</v>
       </c>
       <c r="CM16" s="3">
         <f t="shared" si="13"/>
-        <v>268331.91821587551</v>
+        <v>317593.39730452414</v>
       </c>
       <c r="CN16" s="3">
         <f t="shared" si="13"/>
-        <v>271015.23739803425</v>
+        <v>320769.33127756941</v>
       </c>
       <c r="CO16" s="3">
         <f t="shared" si="13"/>
-        <v>273725.38977201458</v>
+        <v>323977.0245903451</v>
       </c>
       <c r="CP16" s="3">
         <f t="shared" si="13"/>
-        <v>276462.64366973471</v>
+        <v>327216.79483624856</v>
       </c>
       <c r="CQ16" s="3">
         <f t="shared" si="13"/>
-        <v>279227.27010643209</v>
+        <v>330488.96278461104</v>
       </c>
       <c r="CR16" s="3">
         <f t="shared" si="13"/>
-        <v>282019.54280749639</v>
+        <v>333793.85241245717</v>
       </c>
       <c r="CS16" s="3">
         <f t="shared" si="13"/>
-        <v>284839.73823557136</v>
+        <v>337131.79093658173</v>
       </c>
       <c r="CT16" s="3">
         <f t="shared" si="13"/>
-        <v>287688.13561792707</v>
+        <v>340503.10884594754</v>
       </c>
       <c r="CU16" s="3">
         <f t="shared" si="13"/>
-        <v>290565.01697410631</v>
+        <v>343908.13993440702</v>
       </c>
       <c r="CV16" s="3">
         <f t="shared" si="13"/>
-        <v>293470.66714384739</v>
+        <v>347347.22133375111</v>
       </c>
       <c r="CW16" s="3">
         <f t="shared" si="13"/>
-        <v>296405.37381528586</v>
+        <v>350820.69354708859</v>
       </c>
       <c r="CX16" s="3">
         <f t="shared" si="13"/>
-        <v>299369.4275534387</v>
+        <v>354328.90048255946</v>
       </c>
       <c r="CY16" s="3">
         <f t="shared" si="13"/>
-        <v>302363.12182897306</v>
+        <v>357872.18948738504</v>
       </c>
       <c r="CZ16" s="3">
         <f t="shared" si="13"/>
-        <v>305386.75304726278</v>
+        <v>361450.91138225887</v>
       </c>
       <c r="DA16" s="3">
         <f t="shared" si="13"/>
-        <v>308440.62057773542</v>
+        <v>365065.42049608147</v>
       </c>
       <c r="DB16" s="3">
         <f t="shared" si="13"/>
-        <v>311525.02678351279</v>
+        <v>368716.07470104226</v>
       </c>
       <c r="DC16" s="3">
         <f t="shared" si="13"/>
-        <v>314640.27705134795</v>
+        <v>372403.2354480527</v>
       </c>
       <c r="DD16" s="3">
         <f t="shared" si="13"/>
-        <v>317786.67982186144</v>
+        <v>376127.26780253323</v>
       </c>
       <c r="DE16" s="3">
         <f t="shared" si="13"/>
-        <v>320964.54662008007</v>
+        <v>379888.54048055859</v>
       </c>
       <c r="DF16" s="3">
         <f t="shared" si="13"/>
-        <v>324174.19208628085</v>
+        <v>383687.42588536418</v>
       </c>
       <c r="DG16" s="3">
         <f t="shared" si="13"/>
-        <v>327415.93400714366</v>
+        <v>387524.30014421785</v>
       </c>
     </row>
     <row r="17" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
     </row>
     <row r="18" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1608,7 +1617,7 @@
       <c r="V19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="7">
         <v>0.06</v>
       </c>
     </row>
@@ -1644,10 +1653,10 @@
         <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="7">
         <v>0.01</v>
       </c>
     </row>
@@ -1668,25 +1677,25 @@
         <v>0.11750137978857393</v>
       </c>
       <c r="P21" s="6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="Q21" s="6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="R21" s="6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="S21" s="6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="T21" s="6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W21" s="8">
-        <v>0.08</v>
+      <c r="W21" s="7">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22" spans="1:115" x14ac:dyDescent="0.25">
@@ -1695,7 +1704,7 @@
       </c>
       <c r="W22" s="2">
         <f>NPV(W21,P29:DG29)+Sheet1!D5-Sheet1!D6</f>
-        <v>1708888.6210474281</v>
+        <v>1895387.7972330954</v>
       </c>
     </row>
     <row r="23" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1715,31 +1724,26 @@
         <v>0.81665157050717019</v>
       </c>
       <c r="P23" s="5">
-        <f>O23*1.005</f>
-        <v>0.8207348283597059</v>
+        <v>0.82</v>
       </c>
       <c r="Q23" s="5">
-        <f>P23*1.005</f>
-        <v>0.82483850250150437</v>
+        <v>0.82</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" ref="R23:T23" si="17">Q23*1.005</f>
-        <v>0.82896269501401176</v>
+        <v>0.82</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="17"/>
-        <v>0.83310750848908177</v>
+        <v>0.82</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="17"/>
-        <v>0.83727304603152708</v>
-      </c>
-      <c r="V23" s="7" t="s">
+        <v>0.82</v>
+      </c>
+      <c r="V23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="W23" s="3">
         <f>W22/Sheet1!D3</f>
-        <v>674.46367803900534</v>
+        <v>748.07112019303599</v>
       </c>
     </row>
     <row r="24" spans="1:115" x14ac:dyDescent="0.25">
@@ -1751,39 +1755,39 @@
         <v>0.24821411726367604</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" ref="N24:T24" si="18">N12/N5</f>
+        <f t="shared" ref="N24:T24" si="17">N12/N5</f>
         <v>0.34655527716416362</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.42176035404040096</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="18"/>
-        <v>0.42584361189293668</v>
+        <f t="shared" si="17"/>
+        <v>0.45282044784668812</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="18"/>
-        <v>0.4299472860347352</v>
+        <f t="shared" si="17"/>
+        <v>0.47858743396270992</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="18"/>
-        <v>0.43407147854724248</v>
+        <f t="shared" si="17"/>
+        <v>0.50254621052673032</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="18"/>
-        <v>0.4382162920223126</v>
+        <f t="shared" si="17"/>
+        <v>0.5248236694371351</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="18"/>
-        <v>0.44238182956475774</v>
+        <f t="shared" si="17"/>
+        <v>0.54553779789768697</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W24" s="6">
         <f>W23/Sheet1!D2-1</f>
-        <v>0.22629759643455527</v>
+        <v>0.25305045258464998</v>
       </c>
     </row>
     <row r="25" spans="1:115" x14ac:dyDescent="0.25">
@@ -1795,52 +1799,61 @@
         <v>0.16541604850397482</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25:T25" si="19">N29/N5</f>
+        <f t="shared" ref="N25:T25" si="18">N29/N5</f>
         <v>0.32666676550384721</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.32870316897769619</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="19"/>
-        <v>0.32274363094577235</v>
+        <f t="shared" si="18"/>
+        <v>0.33181735757592018</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="19"/>
-        <v>0.34952000032724223</v>
+        <f t="shared" si="18"/>
+        <v>0.39121248979760609</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="19"/>
-        <v>0.37480804512176658</v>
+        <f t="shared" si="18"/>
+        <v>0.44774391117495838</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="19"/>
-        <v>0.39873038481873929</v>
+        <f t="shared" si="18"/>
+        <v>0.50151904638311506</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="19"/>
-        <v>0.42139982429827483</v>
+        <f t="shared" si="18"/>
+        <v>0.55264494381939144</v>
       </c>
     </row>
     <row r="26" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="M26" s="6">
+        <f>M27/M16</f>
+        <v>2.1756465517241379</v>
+      </c>
+      <c r="N26" s="6">
+        <f>N27/N16</f>
+        <v>1.8188398383549031</v>
+      </c>
+      <c r="O26" s="6">
+        <f>O27/O16</f>
+        <v>1.4645285439384221</v>
+      </c>
       <c r="P26" s="6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q26" s="6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R26" s="6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S26" s="6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T26" s="6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:115" x14ac:dyDescent="0.25">
@@ -1858,23 +1871,23 @@
       </c>
       <c r="P27" s="2">
         <f>P26*P16</f>
-        <v>102996.32103899996</v>
+        <v>103207.68733799995</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" ref="Q27:T27" si="20">Q26*Q16</f>
-        <v>123140.20549015162</v>
+        <f t="shared" ref="Q27:T27" si="19">Q26*Q16</f>
+        <v>128715.31758114111</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="20"/>
-        <v>146542.92196972005</v>
+        <f t="shared" si="19"/>
+        <v>158709.85354747198</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="20"/>
-        <v>173705.40949257702</v>
+        <f t="shared" si="19"/>
+        <v>193886.37245695275</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="20"/>
-        <v>205204.31787747354</v>
+        <f t="shared" si="19"/>
+        <v>235041.84387748892</v>
       </c>
     </row>
     <row r="28" spans="1:115" x14ac:dyDescent="0.25">
@@ -1891,24 +1904,24 @@
         <v>37256</v>
       </c>
       <c r="P28" s="2">
-        <f>O28*(1+P20)</f>
-        <v>42471.839999999997</v>
+        <f>O28*1.1</f>
+        <v>40981.600000000006</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" ref="Q28:T28" si="21">P28*(1+Q20)</f>
-        <v>48417.897599999989</v>
+        <f t="shared" ref="Q28:T28" si="20">P28*1.1</f>
+        <v>45079.760000000009</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="21"/>
-        <v>55196.403263999986</v>
+        <f t="shared" si="20"/>
+        <v>49587.736000000012</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="21"/>
-        <v>62923.899720959977</v>
+        <f t="shared" si="20"/>
+        <v>54546.509600000019</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="21"/>
-        <v>71733.245681894361</v>
+        <f t="shared" si="20"/>
+        <v>60001.160560000026</v>
       </c>
     </row>
     <row r="29" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1920,423 +1933,431 @@
         <v>19289</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ref="N29:T29" si="22">N27-N28</f>
+        <f t="shared" ref="N29:T29" si="21">N27-N28</f>
         <v>44068</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>54072</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="22"/>
-        <v>60524.481038999962</v>
+        <f t="shared" si="21"/>
+        <v>62226.087337999939</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="22"/>
-        <v>74722.307890151627</v>
+        <f t="shared" si="21"/>
+        <v>83635.557581141096</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="22"/>
-        <v>91346.518705720053</v>
+        <f t="shared" si="21"/>
+        <v>109122.11754747198</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="22"/>
-        <v>110781.50977161704</v>
+        <f t="shared" si="21"/>
+        <v>139339.86285695274</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="22"/>
-        <v>133471.07219557918</v>
+        <f t="shared" si="21"/>
+        <v>175040.6833174889</v>
       </c>
       <c r="U29" s="3">
-        <f>T29*(1+$W$20)</f>
-        <v>134805.78291753496</v>
+        <f t="shared" ref="U29:AZ29" si="22">T29*(1+$W$20)</f>
+        <v>176791.0901506638</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" ref="V29:CG29" si="23">U29*(1+$W$20)</f>
-        <v>136153.84074671031</v>
+        <f t="shared" si="22"/>
+        <v>178559.00105217044</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="23"/>
-        <v>137515.37915417741</v>
+        <f t="shared" si="22"/>
+        <v>180344.59106269214</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="23"/>
-        <v>138890.5329457192</v>
+        <f t="shared" si="22"/>
+        <v>182148.03697331907</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="23"/>
-        <v>140279.43827517639</v>
+        <f t="shared" si="22"/>
+        <v>183969.51734305226</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="23"/>
-        <v>141682.23265792817</v>
+        <f t="shared" si="22"/>
+        <v>185809.21251648277</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="23"/>
-        <v>143099.05498450744</v>
+        <f t="shared" si="22"/>
+        <v>187667.30464164761</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" si="23"/>
-        <v>144530.04553435251</v>
+        <f t="shared" si="22"/>
+        <v>189543.9776880641</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="23"/>
-        <v>145975.34598969604</v>
+        <f t="shared" si="22"/>
+        <v>191439.41746494474</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="23"/>
-        <v>147435.09944959299</v>
+        <f t="shared" si="22"/>
+        <v>193353.81163959418</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="23"/>
-        <v>148909.45044408893</v>
+        <f t="shared" si="22"/>
+        <v>195287.34975599012</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="23"/>
-        <v>150398.54494852983</v>
+        <f t="shared" si="22"/>
+        <v>197240.22325355001</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" si="23"/>
-        <v>151902.53039801514</v>
+        <f t="shared" si="22"/>
+        <v>199212.62548608551</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="23"/>
-        <v>153421.5557019953</v>
+        <f t="shared" si="22"/>
+        <v>201204.75174094638</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="23"/>
-        <v>154955.77125901525</v>
+        <f t="shared" si="22"/>
+        <v>203216.79925835584</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="23"/>
-        <v>156505.3289716054</v>
+        <f t="shared" si="22"/>
+        <v>205248.9672509394</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="23"/>
-        <v>158070.38226132144</v>
+        <f t="shared" si="22"/>
+        <v>207301.4569234488</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" si="23"/>
-        <v>159651.08608393467</v>
+        <f t="shared" si="22"/>
+        <v>209374.47149268328</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="23"/>
-        <v>161247.59694477401</v>
+        <f t="shared" si="22"/>
+        <v>211468.21620761012</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="23"/>
-        <v>162860.07291422176</v>
+        <f t="shared" si="22"/>
+        <v>213582.89836968621</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="23"/>
-        <v>164488.67364336399</v>
+        <f t="shared" si="22"/>
+        <v>215718.72735338309</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="23"/>
-        <v>166133.56037979762</v>
+        <f t="shared" si="22"/>
+        <v>217875.91462691693</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="23"/>
-        <v>167794.8959835956</v>
+        <f t="shared" si="22"/>
+        <v>220054.67377318611</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="23"/>
-        <v>169472.84494343156</v>
+        <f t="shared" si="22"/>
+        <v>222255.22051091798</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="23"/>
-        <v>171167.57339286586</v>
+        <f t="shared" si="22"/>
+        <v>224477.77271602716</v>
       </c>
       <c r="AT29" s="3">
-        <f t="shared" si="23"/>
-        <v>172879.24912679452</v>
+        <f t="shared" si="22"/>
+        <v>226722.55044318744</v>
       </c>
       <c r="AU29" s="3">
-        <f t="shared" si="23"/>
-        <v>174608.04161806247</v>
+        <f t="shared" si="22"/>
+        <v>228989.77594761932</v>
       </c>
       <c r="AV29" s="3">
-        <f t="shared" si="23"/>
-        <v>176354.1220342431</v>
+        <f t="shared" si="22"/>
+        <v>231279.6737070955</v>
       </c>
       <c r="AW29" s="3">
-        <f t="shared" si="23"/>
-        <v>178117.66325458552</v>
+        <f t="shared" si="22"/>
+        <v>233592.47044416645</v>
       </c>
       <c r="AX29" s="3">
-        <f t="shared" si="23"/>
-        <v>179898.83988713138</v>
+        <f t="shared" si="22"/>
+        <v>235928.39514860811</v>
       </c>
       <c r="AY29" s="3">
-        <f t="shared" si="23"/>
-        <v>181697.82828600271</v>
+        <f t="shared" si="22"/>
+        <v>238287.67910009419</v>
       </c>
       <c r="AZ29" s="3">
-        <f t="shared" si="23"/>
-        <v>183514.80656886272</v>
+        <f t="shared" si="22"/>
+        <v>240670.55589109514</v>
       </c>
       <c r="BA29" s="3">
-        <f t="shared" si="23"/>
-        <v>185349.95463455137</v>
+        <f t="shared" ref="BA29:CF29" si="23">AZ29*(1+$W$20)</f>
+        <v>243077.2614500061</v>
       </c>
       <c r="BB29" s="3">
         <f t="shared" si="23"/>
-        <v>187203.45418089689</v>
+        <v>245508.03406450615</v>
       </c>
       <c r="BC29" s="3">
         <f t="shared" si="23"/>
-        <v>189075.48872270586</v>
+        <v>247963.11440515122</v>
       </c>
       <c r="BD29" s="3">
         <f t="shared" si="23"/>
-        <v>190966.24360993292</v>
+        <v>250442.74554920275</v>
       </c>
       <c r="BE29" s="3">
         <f t="shared" si="23"/>
-        <v>192875.90604603227</v>
+        <v>252947.17300469478</v>
       </c>
       <c r="BF29" s="3">
         <f t="shared" si="23"/>
-        <v>194804.66510649258</v>
+        <v>255476.64473474174</v>
       </c>
       <c r="BG29" s="3">
         <f t="shared" si="23"/>
-        <v>196752.7117575575</v>
+        <v>258031.41118208916</v>
       </c>
       <c r="BH29" s="3">
         <f t="shared" si="23"/>
-        <v>198720.23887513307</v>
+        <v>260611.72529391004</v>
       </c>
       <c r="BI29" s="3">
         <f t="shared" si="23"/>
-        <v>200707.44126388439</v>
+        <v>263217.84254684916</v>
       </c>
       <c r="BJ29" s="3">
         <f t="shared" si="23"/>
-        <v>202714.51567652324</v>
+        <v>265850.02097231767</v>
       </c>
       <c r="BK29" s="3">
         <f t="shared" si="23"/>
-        <v>204741.66083328848</v>
+        <v>268508.52118204086</v>
       </c>
       <c r="BL29" s="3">
         <f t="shared" si="23"/>
-        <v>206789.07744162137</v>
+        <v>271193.60639386129</v>
       </c>
       <c r="BM29" s="3">
         <f t="shared" si="23"/>
-        <v>208856.96821603758</v>
+        <v>273905.54245779989</v>
       </c>
       <c r="BN29" s="3">
         <f t="shared" si="23"/>
-        <v>210945.53789819794</v>
+        <v>276644.59788237792</v>
       </c>
       <c r="BO29" s="3">
         <f t="shared" si="23"/>
-        <v>213054.99327717992</v>
+        <v>279411.04386120167</v>
       </c>
       <c r="BP29" s="3">
         <f t="shared" si="23"/>
-        <v>215185.54320995172</v>
+        <v>282205.15429981367</v>
       </c>
       <c r="BQ29" s="3">
         <f t="shared" si="23"/>
-        <v>217337.39864205124</v>
+        <v>285027.20584281179</v>
       </c>
       <c r="BR29" s="3">
         <f t="shared" si="23"/>
-        <v>219510.77262847175</v>
+        <v>287877.47790123994</v>
       </c>
       <c r="BS29" s="3">
         <f t="shared" si="23"/>
-        <v>221705.88035475646</v>
+        <v>290756.25268025236</v>
       </c>
       <c r="BT29" s="3">
         <f t="shared" si="23"/>
-        <v>223922.93915830401</v>
+        <v>293663.8152070549</v>
       </c>
       <c r="BU29" s="3">
         <f t="shared" si="23"/>
-        <v>226162.16854988705</v>
+        <v>296600.45335912547</v>
       </c>
       <c r="BV29" s="3">
         <f t="shared" si="23"/>
-        <v>228423.79023538591</v>
+        <v>299566.45789271675</v>
       </c>
       <c r="BW29" s="3">
         <f t="shared" si="23"/>
-        <v>230708.02813773978</v>
+        <v>302562.1224716439</v>
       </c>
       <c r="BX29" s="3">
         <f t="shared" si="23"/>
-        <v>233015.10841911717</v>
+        <v>305587.74369636032</v>
       </c>
       <c r="BY29" s="3">
         <f t="shared" si="23"/>
-        <v>235345.25950330833</v>
+        <v>308643.62113332393</v>
       </c>
       <c r="BZ29" s="3">
         <f t="shared" si="23"/>
-        <v>237698.71209834141</v>
+        <v>311730.05734465719</v>
       </c>
       <c r="CA29" s="3">
         <f t="shared" si="23"/>
-        <v>240075.69921932483</v>
+        <v>314847.35791810375</v>
       </c>
       <c r="CB29" s="3">
         <f t="shared" si="23"/>
-        <v>242476.45621151809</v>
+        <v>317995.83149728482</v>
       </c>
       <c r="CC29" s="3">
         <f t="shared" si="23"/>
-        <v>244901.22077363328</v>
+        <v>321175.78981225769</v>
       </c>
       <c r="CD29" s="3">
         <f t="shared" si="23"/>
-        <v>247350.23298136963</v>
+        <v>324387.54771038028</v>
       </c>
       <c r="CE29" s="3">
         <f t="shared" si="23"/>
-        <v>249823.73531118332</v>
+        <v>327631.42318748409</v>
       </c>
       <c r="CF29" s="3">
         <f t="shared" si="23"/>
-        <v>252321.97266429514</v>
+        <v>330907.73741935892</v>
       </c>
       <c r="CG29" s="3">
-        <f t="shared" si="23"/>
-        <v>254845.19239093809</v>
+        <f t="shared" ref="CG29:DK29" si="24">CF29*(1+$W$20)</f>
+        <v>334216.8147935525</v>
       </c>
       <c r="CH29" s="3">
-        <f t="shared" ref="CH29:DK29" si="24">CG29*(1+$W$20)</f>
-        <v>257393.64431484748</v>
+        <f t="shared" si="24"/>
+        <v>337558.98294148804</v>
       </c>
       <c r="CI29" s="3">
         <f t="shared" si="24"/>
-        <v>259967.58075799595</v>
+        <v>340934.57277090295</v>
       </c>
       <c r="CJ29" s="3">
         <f t="shared" si="24"/>
-        <v>262567.2565655759</v>
+        <v>344343.91849861195</v>
       </c>
       <c r="CK29" s="3">
         <f t="shared" si="24"/>
-        <v>265192.92913123168</v>
+        <v>347787.35768359806</v>
       </c>
       <c r="CL29" s="3">
         <f t="shared" si="24"/>
-        <v>267844.85842254397</v>
+        <v>351265.23126043403</v>
       </c>
       <c r="CM29" s="3">
         <f t="shared" si="24"/>
-        <v>270523.30700676941</v>
+        <v>354777.88357303839</v>
       </c>
       <c r="CN29" s="3">
         <f t="shared" si="24"/>
-        <v>273228.54007683712</v>
+        <v>358325.66240876878</v>
       </c>
       <c r="CO29" s="3">
         <f t="shared" si="24"/>
-        <v>275960.82547760551</v>
+        <v>361908.91903285647</v>
       </c>
       <c r="CP29" s="3">
         <f t="shared" si="24"/>
-        <v>278720.43373238156</v>
+        <v>365528.00822318502</v>
       </c>
       <c r="CQ29" s="3">
         <f t="shared" si="24"/>
-        <v>281507.6380697054</v>
+        <v>369183.28830541688</v>
       </c>
       <c r="CR29" s="3">
         <f t="shared" si="24"/>
-        <v>284322.71445040248</v>
+        <v>372875.12118847104</v>
       </c>
       <c r="CS29" s="3">
         <f t="shared" si="24"/>
-        <v>287165.9415949065</v>
+        <v>376603.87240035576</v>
       </c>
       <c r="CT29" s="3">
         <f t="shared" si="24"/>
-        <v>290037.60101085558</v>
+        <v>380369.91112435929</v>
       </c>
       <c r="CU29" s="3">
         <f t="shared" si="24"/>
-        <v>292937.97702096414</v>
+        <v>384173.61023560289</v>
       </c>
       <c r="CV29" s="3">
         <f t="shared" si="24"/>
-        <v>295867.35679117381</v>
+        <v>388015.34633795894</v>
       </c>
       <c r="CW29" s="3">
         <f t="shared" si="24"/>
-        <v>298826.03035908553</v>
+        <v>391895.49980133853</v>
       </c>
       <c r="CX29" s="3">
         <f t="shared" si="24"/>
-        <v>301814.29066267639</v>
+        <v>395814.45479935192</v>
       </c>
       <c r="CY29" s="3">
         <f t="shared" si="24"/>
-        <v>304832.43356930313</v>
+        <v>399772.59934734547</v>
       </c>
       <c r="CZ29" s="3">
         <f t="shared" si="24"/>
-        <v>307880.75790499616</v>
+        <v>403770.3253408189</v>
       </c>
       <c r="DA29" s="3">
         <f t="shared" si="24"/>
-        <v>310959.56548404612</v>
+        <v>407808.0285942271</v>
       </c>
       <c r="DB29" s="3">
         <f t="shared" si="24"/>
-        <v>314069.16113888659</v>
+        <v>411886.1088801694</v>
       </c>
       <c r="DC29" s="3">
         <f t="shared" si="24"/>
-        <v>317209.85275027546</v>
+        <v>416004.9699689711</v>
       </c>
       <c r="DD29" s="3">
         <f t="shared" si="24"/>
-        <v>320381.95127777819</v>
+        <v>420165.01966866083</v>
       </c>
       <c r="DE29" s="3">
         <f t="shared" si="24"/>
-        <v>323585.77079055598</v>
+        <v>424366.66986534745</v>
       </c>
       <c r="DF29" s="3">
         <f t="shared" si="24"/>
-        <v>326821.62849846156</v>
+        <v>428610.33656400093</v>
       </c>
       <c r="DG29" s="3">
         <f t="shared" si="24"/>
-        <v>330089.84478344617</v>
+        <v>432896.43992964097</v>
       </c>
       <c r="DH29" s="3">
         <f t="shared" si="24"/>
-        <v>333390.74323128065</v>
+        <v>437225.40432893741</v>
       </c>
       <c r="DI29" s="3">
         <f t="shared" si="24"/>
-        <v>336724.65066359343</v>
+        <v>441597.65837222681</v>
       </c>
       <c r="DJ29" s="3">
         <f t="shared" si="24"/>
-        <v>340091.89717022935</v>
+        <v>446013.63495594909</v>
       </c>
       <c r="DK29" s="3">
         <f t="shared" si="24"/>
-        <v>343492.81614193163</v>
+        <v>450473.77130550856</v>
       </c>
     </row>
     <row r="30" spans="1:115" x14ac:dyDescent="0.25">
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
     </row>
     <row r="31" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2348,23 +2369,23 @@
       </c>
       <c r="P31" s="2">
         <f>O31+P16</f>
-        <v>102735.23937999997</v>
+        <v>105091.12489199996</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" ref="Q31:T31" si="25">P31+Q16</f>
-        <v>182180.53324461391</v>
+        <v>190901.3366127607</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="25"/>
-        <v>276724.35387023975</v>
+        <v>296707.90564440866</v>
       </c>
       <c r="S31" s="2">
         <f t="shared" si="25"/>
-        <v>388792.35999448295</v>
+        <v>425965.4872823772</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="25"/>
-        <v>521182.24249607878</v>
+        <v>582660.04986736982</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">

--- a/META.xlsx
+++ b/META.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50D1EC-DCA2-40C2-BA9A-3F56695FBB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45804C67-4715-4E35-8A90-4FAFD36BE991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="900" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
+    <workbookView xWindow="1335" yWindow="1695" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>META</t>
   </si>
@@ -172,13 +172,16 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>OPEX % of R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +190,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,16 +223,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,7 +263,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -304,7 +313,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -667,68 +676,70 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="11.140625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>2189.9+343.8</f>
         <v>2533.7000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>D3*D2</f>
         <v>1512618.9000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>43889+33926</f>
         <v>77815</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>28826+9987+2716</f>
         <v>41529</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>D4+D6-D5</f>
         <v>1476332.9000000001</v>
       </c>
@@ -740,133 +751,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C755AA4-BDC3-4CA3-B5F0-D343E2844B7B}">
-  <dimension ref="A1:DK35"/>
+  <dimension ref="A1:DK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="10.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <v>2020</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="2">
         <f>K1+1</f>
         <v>2021</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <f t="shared" ref="M1:T1" si="0">L1+1</f>
         <v>2022</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>113642</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>131948</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>160633</v>
       </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>808</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>1058</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>1722</v>
       </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>2159</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>1896</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>2146</v>
       </c>
     </row>
-    <row r="5" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -903,299 +916,299 @@
         <v>316732.62421938224</v>
       </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>25249</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>25959</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>30161</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f>P5*(1-P23)</f>
         <v>33755.605200000005</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" ref="Q6:T6" si="3">Q5*(1-Q23)</f>
         <v>38481.389928000004</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" si="3"/>
         <v>43868.784517920001</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <f t="shared" si="3"/>
         <v>50010.414350428793</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <f t="shared" si="3"/>
         <v>57011.872359488822</v>
       </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f>M5-M6</f>
         <v>91360</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" ref="N7:T7" si="4">N5-N6</f>
         <v>108943</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f t="shared" si="4"/>
         <v>134340</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="4"/>
         <v>153775.53479999996</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f t="shared" si="4"/>
         <v>175304.10967199993</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <f t="shared" si="4"/>
         <v>199846.68502607994</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <f t="shared" si="4"/>
         <v>227825.22092973109</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <f t="shared" si="4"/>
         <v>259720.75185989341</v>
       </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>35338</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>38483</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>43873</v>
       </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>15262</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>12301</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>11347</v>
       </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>11816</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>11408</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>9740</v>
       </c>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <f>SUM(M8:M10)</f>
         <v>62416</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <f t="shared" ref="N11:O11" si="5">SUM(N8:N10)</f>
         <v>62192</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <f t="shared" si="5"/>
         <v>64960</v>
       </c>
-      <c r="P11" s="2">
-        <f>O11*1.06</f>
-        <v>68857.600000000006</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" ref="Q11:T11" si="6">P11*1.06</f>
-        <v>72989.056000000011</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="P11" s="1">
+        <f>P26*P5</f>
+        <v>72573.311999999991</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:T11" si="6">Q26*Q5</f>
+        <v>81078.904166399996</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="6"/>
-        <v>77368.39936000001</v>
-      </c>
-      <c r="S11" s="2">
+        <v>90581.351734702068</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="6"/>
-        <v>82010.503321600016</v>
-      </c>
-      <c r="T11" s="2">
+        <v>101197.48615800914</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="6"/>
-        <v>86931.133520896023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>113057.83153572779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <f>M7-M11</f>
         <v>28944</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <f t="shared" ref="N12:T12" si="7">N7-N11</f>
         <v>46751</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <f t="shared" si="7"/>
         <v>69380</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>84917.934799999959</v>
-      </c>
-      <c r="Q12" s="2">
+        <v>81202.222799999974</v>
+      </c>
+      <c r="Q12" s="1">
         <f t="shared" si="7"/>
-        <v>102315.05367199992</v>
-      </c>
-      <c r="R12" s="2">
+        <v>94225.205505599937</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="7"/>
-        <v>122478.28566607993</v>
-      </c>
-      <c r="S12" s="2">
+        <v>109265.33329137787</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="7"/>
-        <v>145814.71760813106</v>
-      </c>
-      <c r="T12" s="2">
+        <v>126627.73477172195</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="7"/>
-        <v>172789.61833899739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+        <v>146662.92032416561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>-125</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>677</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>1283</v>
       </c>
-      <c r="P13" s="2">
-        <f>O31*$W$19</f>
+      <c r="P13" s="1">
+        <f>O32*$W$19</f>
         <v>2177.16</v>
       </c>
-      <c r="Q13" s="2">
-        <f>P31*$W$19</f>
-        <v>6305.4674935199973</v>
-      </c>
-      <c r="R13" s="2">
-        <f>Q31*$W$19</f>
-        <v>11454.080196765641</v>
-      </c>
-      <c r="S13" s="2">
-        <f>R31*$W$19</f>
-        <v>17802.47433866452</v>
-      </c>
-      <c r="T13" s="2">
-        <f>S31*$W$19</f>
-        <v>25557.929236942633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="Q13" s="1">
+        <f>P32*$W$19</f>
+        <v>6129.3427447199983</v>
+      </c>
+      <c r="R13" s="1">
+        <f>Q32*$W$19</f>
+        <v>10886.148331785163</v>
+      </c>
+      <c r="S13" s="1">
+        <f>R32*$W$19</f>
+        <v>16581.328560723094</v>
+      </c>
+      <c r="T13" s="1">
+        <f>S32*$W$19</f>
+        <v>23369.438162680988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <f>M12+M13</f>
         <v>28819</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <f t="shared" ref="N14:T14" si="8">N12+N13</f>
         <v>47428</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <f t="shared" si="8"/>
         <v>70663</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <f t="shared" si="8"/>
-        <v>87095.094799999963</v>
-      </c>
-      <c r="Q14" s="2">
+        <v>83379.382799999978</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="8"/>
-        <v>108620.52116551992</v>
-      </c>
-      <c r="R14" s="2">
+        <v>100354.54825031993</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="8"/>
-        <v>133932.36586284556</v>
-      </c>
-      <c r="S14" s="2">
+        <v>120151.48162316304</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="8"/>
-        <v>163617.19194679559</v>
-      </c>
-      <c r="T14" s="2">
+        <v>143209.06333244505</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="8"/>
-        <v>198347.54757594003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+        <v>170032.35848684658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>5619</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>8330</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>8303</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <f>P14*P21</f>
-        <v>18289.969907999992</v>
-      </c>
-      <c r="Q15" s="2">
+        <v>17509.670387999995</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" ref="Q15:T15" si="9">Q14*Q21</f>
-        <v>22810.309444759183</v>
-      </c>
-      <c r="R15" s="2">
+        <v>21074.455132567186</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="9"/>
-        <v>28125.796831197567</v>
-      </c>
-      <c r="S15" s="2">
+        <v>25231.811140864236</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="9"/>
-        <v>34359.610308827076</v>
-      </c>
-      <c r="T15" s="2">
+        <v>30073.903299813457</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="9"/>
-        <v>41652.984990947407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35706.795282237785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1213,1195 +1226,1213 @@
       </c>
       <c r="P16" s="3">
         <f t="shared" si="10"/>
-        <v>68805.124891999963</v>
+        <v>65869.712411999979</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="10"/>
-        <v>85810.211720760737</v>
+        <v>79280.093117752753</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="10"/>
-        <v>105806.56903164799</v>
+        <v>94919.670482298796</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" si="10"/>
-        <v>129257.58163796851</v>
+        <v>113135.1600326316</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="10"/>
-        <v>156694.56258499261</v>
+        <v>134325.5632046088</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" ref="U16:AZ16" si="11">T16*(1+$W$20)</f>
-        <v>158261.50821084256</v>
+        <v>135668.81883665489</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="11"/>
-        <v>159844.12329295097</v>
+        <v>137025.50702502145</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="11"/>
-        <v>161442.56452588047</v>
+        <v>138395.76209527167</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" si="11"/>
-        <v>163056.99017113927</v>
+        <v>139779.71971622438</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="11"/>
-        <v>164687.56007285067</v>
+        <v>141177.51691338661</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="11"/>
-        <v>166334.43567357917</v>
+        <v>142589.29208252049</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" si="11"/>
-        <v>167997.78003031496</v>
+        <v>144015.18500334569</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="11"/>
-        <v>169677.75783061809</v>
+        <v>145455.33685337915</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="11"/>
-        <v>171374.53540892428</v>
+        <v>146909.89022191294</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" si="11"/>
-        <v>173088.28076301352</v>
+        <v>148378.98912413206</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="11"/>
-        <v>174819.16357064366</v>
+        <v>149862.77901537338</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="11"/>
-        <v>176567.3552063501</v>
+        <v>151361.40680552711</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" si="11"/>
-        <v>178333.02875841359</v>
+        <v>152875.02087358237</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="11"/>
-        <v>180116.35904599773</v>
+        <v>154403.77108231818</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="11"/>
-        <v>181917.5226364577</v>
+        <v>155947.80879314136</v>
       </c>
       <c r="AJ16" s="3">
         <f t="shared" si="11"/>
-        <v>183736.69786282227</v>
+        <v>157507.28688107277</v>
       </c>
       <c r="AK16" s="3">
         <f t="shared" si="11"/>
-        <v>185574.06484145048</v>
+        <v>159082.3597498835</v>
       </c>
       <c r="AL16" s="3">
         <f t="shared" si="11"/>
-        <v>187429.80548986499</v>
+        <v>160673.18334738235</v>
       </c>
       <c r="AM16" s="3">
         <f t="shared" si="11"/>
-        <v>189304.10354476364</v>
+        <v>162279.91518085619</v>
       </c>
       <c r="AN16" s="3">
         <f t="shared" si="11"/>
-        <v>191197.14458021129</v>
+        <v>163902.71433266476</v>
       </c>
       <c r="AO16" s="3">
         <f t="shared" si="11"/>
-        <v>193109.11602601339</v>
+        <v>165541.74147599141</v>
       </c>
       <c r="AP16" s="3">
         <f t="shared" si="11"/>
-        <v>195040.20718627353</v>
+        <v>167197.15889075134</v>
       </c>
       <c r="AQ16" s="3">
         <f t="shared" si="11"/>
-        <v>196990.60925813628</v>
+        <v>168869.13047965884</v>
       </c>
       <c r="AR16" s="3">
         <f t="shared" si="11"/>
-        <v>198960.51535071764</v>
+        <v>170557.82178445542</v>
       </c>
       <c r="AS16" s="3">
         <f t="shared" si="11"/>
-        <v>200950.12050422482</v>
+        <v>172263.40000229998</v>
       </c>
       <c r="AT16" s="3">
         <f t="shared" si="11"/>
-        <v>202959.62170926706</v>
+        <v>173986.03400232299</v>
       </c>
       <c r="AU16" s="3">
         <f t="shared" si="11"/>
-        <v>204989.21792635974</v>
+        <v>175725.89434234623</v>
       </c>
       <c r="AV16" s="3">
         <f t="shared" si="11"/>
-        <v>207039.11010562335</v>
+        <v>177483.15328576969</v>
       </c>
       <c r="AW16" s="3">
         <f t="shared" si="11"/>
-        <v>209109.50120667959</v>
+        <v>179257.98481862739</v>
       </c>
       <c r="AX16" s="3">
         <f t="shared" si="11"/>
-        <v>211200.59621874639</v>
+        <v>181050.56466681368</v>
       </c>
       <c r="AY16" s="3">
         <f t="shared" si="11"/>
-        <v>213312.60218093384</v>
+        <v>182861.07031348182</v>
       </c>
       <c r="AZ16" s="3">
         <f t="shared" si="11"/>
-        <v>215445.72820274319</v>
+        <v>184689.68101661664</v>
       </c>
       <c r="BA16" s="3">
         <f t="shared" ref="BA16:CF16" si="12">AZ16*(1+$W$20)</f>
-        <v>217600.18548477063</v>
+        <v>186536.5778267828</v>
       </c>
       <c r="BB16" s="3">
         <f t="shared" si="12"/>
-        <v>219776.18733961834</v>
+        <v>188401.94360505062</v>
       </c>
       <c r="BC16" s="3">
         <f t="shared" si="12"/>
-        <v>221973.94921301451</v>
+        <v>190285.96304110112</v>
       </c>
       <c r="BD16" s="3">
         <f t="shared" si="12"/>
-        <v>224193.68870514465</v>
+        <v>192188.82267151214</v>
       </c>
       <c r="BE16" s="3">
         <f t="shared" si="12"/>
-        <v>226435.6255921961</v>
+        <v>194110.71089822726</v>
       </c>
       <c r="BF16" s="3">
         <f t="shared" si="12"/>
-        <v>228699.98184811807</v>
+        <v>196051.81800720954</v>
       </c>
       <c r="BG16" s="3">
         <f t="shared" si="12"/>
-        <v>230986.98166659925</v>
+        <v>198012.33618728165</v>
       </c>
       <c r="BH16" s="3">
         <f t="shared" si="12"/>
-        <v>233296.85148326526</v>
+        <v>199992.45954915448</v>
       </c>
       <c r="BI16" s="3">
         <f t="shared" si="12"/>
-        <v>235629.81999809793</v>
+        <v>201992.38414464603</v>
       </c>
       <c r="BJ16" s="3">
         <f t="shared" si="12"/>
-        <v>237986.11819807891</v>
+        <v>204012.30798609249</v>
       </c>
       <c r="BK16" s="3">
         <f t="shared" si="12"/>
-        <v>240365.9793800597</v>
+        <v>206052.43106595342</v>
       </c>
       <c r="BL16" s="3">
         <f t="shared" si="12"/>
-        <v>242769.63917386028</v>
+        <v>208112.95537661295</v>
       </c>
       <c r="BM16" s="3">
         <f t="shared" si="12"/>
-        <v>245197.33556559889</v>
+        <v>210194.08493037909</v>
       </c>
       <c r="BN16" s="3">
         <f t="shared" si="12"/>
-        <v>247649.30892125488</v>
+        <v>212296.02577968288</v>
       </c>
       <c r="BO16" s="3">
         <f t="shared" si="12"/>
-        <v>250125.80201046742</v>
+        <v>214418.98603747971</v>
       </c>
       <c r="BP16" s="3">
         <f t="shared" si="12"/>
-        <v>252627.06003057209</v>
+        <v>216563.17589785453</v>
       </c>
       <c r="BQ16" s="3">
         <f t="shared" si="12"/>
-        <v>255153.33063087781</v>
+        <v>218728.80765683309</v>
       </c>
       <c r="BR16" s="3">
         <f t="shared" si="12"/>
-        <v>257704.8639371866</v>
+        <v>220916.09573340142</v>
       </c>
       <c r="BS16" s="3">
         <f t="shared" si="12"/>
-        <v>260281.91257655848</v>
+        <v>223125.25669073543</v>
       </c>
       <c r="BT16" s="3">
         <f t="shared" si="12"/>
-        <v>262884.73170232406</v>
+        <v>225356.50925764279</v>
       </c>
       <c r="BU16" s="3">
         <f t="shared" si="12"/>
-        <v>265513.57901934732</v>
+        <v>227610.07435021922</v>
       </c>
       <c r="BV16" s="3">
         <f t="shared" si="12"/>
-        <v>268168.71480954078</v>
+        <v>229886.17509372142</v>
       </c>
       <c r="BW16" s="3">
         <f t="shared" si="12"/>
-        <v>270850.40195763618</v>
+        <v>232185.03684465864</v>
       </c>
       <c r="BX16" s="3">
         <f t="shared" si="12"/>
-        <v>273558.90597721253</v>
+        <v>234506.88721310522</v>
       </c>
       <c r="BY16" s="3">
         <f t="shared" si="12"/>
-        <v>276294.49503698468</v>
+        <v>236851.95608523628</v>
       </c>
       <c r="BZ16" s="3">
         <f t="shared" si="12"/>
-        <v>279057.4399873545</v>
+        <v>239220.47564608866</v>
       </c>
       <c r="CA16" s="3">
         <f t="shared" si="12"/>
-        <v>281848.01438722806</v>
+        <v>241612.68040254954</v>
       </c>
       <c r="CB16" s="3">
         <f t="shared" si="12"/>
-        <v>284666.49453110032</v>
+        <v>244028.80720657503</v>
       </c>
       <c r="CC16" s="3">
         <f t="shared" si="12"/>
-        <v>287513.15947641135</v>
+        <v>246469.09527864077</v>
       </c>
       <c r="CD16" s="3">
         <f t="shared" si="12"/>
-        <v>290388.29107117548</v>
+        <v>248933.78623142719</v>
       </c>
       <c r="CE16" s="3">
         <f t="shared" si="12"/>
-        <v>293292.17398188723</v>
+        <v>251423.12409374147</v>
       </c>
       <c r="CF16" s="3">
         <f t="shared" si="12"/>
-        <v>296225.09572170611</v>
+        <v>253937.3553346789</v>
       </c>
       <c r="CG16" s="3">
         <f t="shared" ref="CG16:DG16" si="13">CF16*(1+$W$20)</f>
-        <v>299187.34667892318</v>
+        <v>256476.72888802568</v>
       </c>
       <c r="CH16" s="3">
         <f t="shared" si="13"/>
-        <v>302179.22014571243</v>
+        <v>259041.49617690593</v>
       </c>
       <c r="CI16" s="3">
         <f t="shared" si="13"/>
-        <v>305201.01234716957</v>
+        <v>261631.911138675</v>
       </c>
       <c r="CJ16" s="3">
         <f t="shared" si="13"/>
-        <v>308253.02247064124</v>
+        <v>264248.23025006178</v>
       </c>
       <c r="CK16" s="3">
         <f t="shared" si="13"/>
-        <v>311335.55269534764</v>
+        <v>266890.71255256241</v>
       </c>
       <c r="CL16" s="3">
         <f t="shared" si="13"/>
-        <v>314448.90822230111</v>
+        <v>269559.61967808806</v>
       </c>
       <c r="CM16" s="3">
         <f t="shared" si="13"/>
-        <v>317593.39730452414</v>
+        <v>272255.21587486891</v>
       </c>
       <c r="CN16" s="3">
         <f t="shared" si="13"/>
-        <v>320769.33127756941</v>
+        <v>274977.76803361758</v>
       </c>
       <c r="CO16" s="3">
         <f t="shared" si="13"/>
-        <v>323977.0245903451</v>
+        <v>277727.54571395379</v>
       </c>
       <c r="CP16" s="3">
         <f t="shared" si="13"/>
-        <v>327216.79483624856</v>
+        <v>280504.82117109332</v>
       </c>
       <c r="CQ16" s="3">
         <f t="shared" si="13"/>
-        <v>330488.96278461104</v>
+        <v>283309.86938280426</v>
       </c>
       <c r="CR16" s="3">
         <f t="shared" si="13"/>
-        <v>333793.85241245717</v>
+        <v>286142.9680766323</v>
       </c>
       <c r="CS16" s="3">
         <f t="shared" si="13"/>
-        <v>337131.79093658173</v>
+        <v>289004.3977573986</v>
       </c>
       <c r="CT16" s="3">
         <f t="shared" si="13"/>
-        <v>340503.10884594754</v>
+        <v>291894.44173497258</v>
       </c>
       <c r="CU16" s="3">
         <f t="shared" si="13"/>
-        <v>343908.13993440702</v>
+        <v>294813.38615232229</v>
       </c>
       <c r="CV16" s="3">
         <f t="shared" si="13"/>
-        <v>347347.22133375111</v>
+        <v>297761.52001384553</v>
       </c>
       <c r="CW16" s="3">
         <f t="shared" si="13"/>
-        <v>350820.69354708859</v>
+        <v>300739.135213984</v>
       </c>
       <c r="CX16" s="3">
         <f t="shared" si="13"/>
-        <v>354328.90048255946</v>
+        <v>303746.52656612382</v>
       </c>
       <c r="CY16" s="3">
         <f t="shared" si="13"/>
-        <v>357872.18948738504</v>
+        <v>306783.99183178507</v>
       </c>
       <c r="CZ16" s="3">
         <f t="shared" si="13"/>
-        <v>361450.91138225887</v>
+        <v>309851.83175010292</v>
       </c>
       <c r="DA16" s="3">
         <f t="shared" si="13"/>
-        <v>365065.42049608147</v>
+        <v>312950.35006760398</v>
       </c>
       <c r="DB16" s="3">
         <f t="shared" si="13"/>
-        <v>368716.07470104226</v>
+        <v>316079.85356828</v>
       </c>
       <c r="DC16" s="3">
         <f t="shared" si="13"/>
-        <v>372403.2354480527</v>
+        <v>319240.65210396278</v>
       </c>
       <c r="DD16" s="3">
         <f t="shared" si="13"/>
-        <v>376127.26780253323</v>
+        <v>322433.05862500239</v>
       </c>
       <c r="DE16" s="3">
         <f t="shared" si="13"/>
-        <v>379888.54048055859</v>
+        <v>325657.38921125239</v>
       </c>
       <c r="DF16" s="3">
         <f t="shared" si="13"/>
-        <v>383687.42588536418</v>
+        <v>328913.96310336492</v>
       </c>
       <c r="DG16" s="3">
         <f t="shared" si="13"/>
-        <v>387524.30014421785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+        <v>332203.10273439856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="V19" s="2" t="s">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="V19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:115" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="6">
         <f>N5/M5-1</f>
         <v>0.15687468377226454</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <f>O5/N5-1</f>
         <v>0.21941112807816054</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="6">
         <f t="shared" ref="P20:T20" si="14">P5/O5-1</f>
         <v>0.1399999999999999</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="6">
         <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="6">
         <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="6">
         <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <f>M15/M14</f>
         <v>0.19497553697213643</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="4">
         <f t="shared" ref="N21:O21" si="15">N15/N14</f>
         <v>0.17563464620055663</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="4">
         <f t="shared" si="15"/>
         <v>0.11750137978857393</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="4">
         <v>0.21</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="4">
         <v>0.21</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="4">
         <v>0.21</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="4">
         <v>0.21</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="4">
         <v>0.21</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="V22" s="2" t="s">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="V22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W22" s="2">
-        <f>NPV(W21,P29:DG29)+Sheet1!D5-Sheet1!D6</f>
-        <v>1895387.7972330954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="1">
+        <f>NPV(W21,P30:DG30)+Sheet1!D5-Sheet1!D6</f>
+        <v>1522769.7965036253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:115" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <f>M7/M5</f>
         <v>0.78347297378418479</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="6">
         <f t="shared" ref="N23:O23" si="16">N7/N5</f>
         <v>0.8075714222176098</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="6">
         <f t="shared" si="16"/>
         <v>0.81665157050717019</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="6">
         <v>0.82</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="6">
         <v>0.82</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="6">
         <v>0.82</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="6">
         <v>0.82</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="6">
         <v>0.82</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="V23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W23" s="3">
         <f>W22/Sheet1!D3</f>
-        <v>748.07112019303599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+        <v>601.00635296350208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="4">
         <f>M12/M5</f>
         <v>0.24821411726367604</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="4">
         <f t="shared" ref="N24:T24" si="17">N12/N5</f>
         <v>0.34655527716416362</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="4">
         <f t="shared" si="17"/>
         <v>0.42176035404040096</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="4">
         <f t="shared" si="17"/>
-        <v>0.45282044784668812</v>
-      </c>
-      <c r="Q24" s="6">
+        <v>0.43300660786256606</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="17"/>
-        <v>0.47858743396270992</v>
-      </c>
-      <c r="R24" s="6">
+        <v>0.44074647570531467</v>
+      </c>
+      <c r="R24" s="4">
         <f t="shared" si="17"/>
-        <v>0.50254621052673032</v>
-      </c>
-      <c r="S24" s="6">
+        <v>0.44833154619120846</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="17"/>
-        <v>0.5248236694371351</v>
-      </c>
-      <c r="T24" s="6">
+        <v>0.45576491526738427</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" si="17"/>
-        <v>0.54553779789768697</v>
-      </c>
-      <c r="V24" s="2" t="s">
+        <v>0.46304961696203656</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="4">
         <f>W23/Sheet1!D2-1</f>
-        <v>0.25305045258464998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+        <v>6.7108089840905993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="6">
-        <f>M29/M5</f>
+      <c r="M25" s="4">
+        <f>M30/M5</f>
         <v>0.16541604850397482</v>
       </c>
-      <c r="N25" s="6">
-        <f t="shared" ref="N25:T25" si="18">N29/N5</f>
+      <c r="N25" s="4">
+        <f t="shared" ref="N25:T25" si="18">N30/N5</f>
         <v>0.32666676550384721</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <f t="shared" si="18"/>
         <v>0.32870316897769619</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="4">
         <f t="shared" si="18"/>
-        <v>0.33181735757592018</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="18"/>
-        <v>0.39121248979760609</v>
-      </c>
-      <c r="R25" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="18"/>
-        <v>0.44774391117495838</v>
-      </c>
-      <c r="S25" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="18"/>
-        <v>0.50151904638311506</v>
-      </c>
-      <c r="T25" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="18"/>
-        <v>0.55264494381939144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="M26" s="6">
-        <f>M27/M16</f>
-        <v>2.1756465517241379</v>
-      </c>
-      <c r="N26" s="6">
-        <f>N27/N16</f>
-        <v>1.8188398383549031</v>
-      </c>
-      <c r="O26" s="6">
-        <f>O27/O16</f>
-        <v>1.4645285439384221</v>
-      </c>
-      <c r="P26" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="R26" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="S26" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="T26" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="4">
+        <f>M11/M5</f>
+        <v>0.53525885652050875</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" ref="N26:T26" si="19">N11/N5</f>
+        <v>0.46101614505344618</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="19"/>
+        <v>0.39489121646676922</v>
+      </c>
+      <c r="P26" s="4">
+        <f>O26*0.98</f>
+        <v>0.38699339213743383</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" ref="Q26:T26" si="20">P26*0.98</f>
+        <v>0.37925352429468517</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="20"/>
+        <v>0.37166845380879149</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="20"/>
+        <v>0.36423508473261568</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="20"/>
+        <v>0.35695038303796334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M28" s="1">
         <v>50475</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N28" s="1">
         <v>71113</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O28" s="1">
         <v>91328</v>
       </c>
-      <c r="P27" s="2">
-        <f>P26*P16</f>
-        <v>103207.68733799995</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" ref="Q27:T27" si="19">Q26*Q16</f>
-        <v>128715.31758114111</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="19"/>
-        <v>158709.85354747198</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" si="19"/>
-        <v>193886.37245695275</v>
-      </c>
-      <c r="T27" s="2">
-        <f t="shared" si="19"/>
-        <v>235041.84387748892</v>
-      </c>
-    </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="P28" s="1">
+        <f>P5*0.6</f>
+        <v>112518.68399999999</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" ref="Q28:T28" si="21">Q5*0.6</f>
+        <v>128271.29975999997</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="21"/>
+        <v>146229.28172639996</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="21"/>
+        <v>166701.38116809592</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="21"/>
+        <v>190039.57453162933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M29" s="1">
         <v>31186</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N29" s="1">
         <v>27045</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O29" s="1">
         <v>37256</v>
       </c>
-      <c r="P28" s="2">
-        <f>O28*1.1</f>
-        <v>40981.600000000006</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" ref="Q28:T28" si="20">P28*1.1</f>
-        <v>45079.760000000009</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="20"/>
-        <v>49587.736000000012</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" si="20"/>
-        <v>54546.509600000019</v>
-      </c>
-      <c r="T28" s="2">
-        <f t="shared" si="20"/>
-        <v>60001.160560000026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="P29" s="1">
+        <f>P5*0.18</f>
+        <v>33755.605199999998</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29:T29" si="22">Q5*0.18</f>
+        <v>38481.38992799999</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="22"/>
+        <v>43868.784517919987</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="22"/>
+        <v>50010.414350428779</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="22"/>
+        <v>57011.8723594888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:115" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="3">
-        <f>M27-M28</f>
+      <c r="M30" s="3">
+        <f>M28-M29</f>
         <v>19289</v>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" ref="N29:T29" si="21">N27-N28</f>
+      <c r="N30" s="3">
+        <f t="shared" ref="N30:T30" si="23">N28-N29</f>
         <v>44068</v>
       </c>
-      <c r="O29" s="3">
-        <f t="shared" si="21"/>
+      <c r="O30" s="3">
+        <f t="shared" si="23"/>
         <v>54072</v>
       </c>
-      <c r="P29" s="3">
-        <f t="shared" si="21"/>
-        <v>62226.087337999939</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="21"/>
-        <v>83635.557581141096</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="21"/>
-        <v>109122.11754747198</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="21"/>
-        <v>139339.86285695274</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="21"/>
-        <v>175040.6833174889</v>
-      </c>
-      <c r="U29" s="3">
-        <f t="shared" ref="U29:AZ29" si="22">T29*(1+$W$20)</f>
-        <v>176791.0901506638</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="22"/>
-        <v>178559.00105217044</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="22"/>
-        <v>180344.59106269214</v>
-      </c>
-      <c r="X29" s="3">
-        <f t="shared" si="22"/>
-        <v>182148.03697331907</v>
-      </c>
-      <c r="Y29" s="3">
-        <f t="shared" si="22"/>
-        <v>183969.51734305226</v>
-      </c>
-      <c r="Z29" s="3">
-        <f t="shared" si="22"/>
-        <v>185809.21251648277</v>
-      </c>
-      <c r="AA29" s="3">
-        <f t="shared" si="22"/>
-        <v>187667.30464164761</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="22"/>
-        <v>189543.9776880641</v>
-      </c>
-      <c r="AC29" s="3">
-        <f t="shared" si="22"/>
-        <v>191439.41746494474</v>
-      </c>
-      <c r="AD29" s="3">
-        <f t="shared" si="22"/>
-        <v>193353.81163959418</v>
-      </c>
-      <c r="AE29" s="3">
-        <f t="shared" si="22"/>
-        <v>195287.34975599012</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="22"/>
-        <v>197240.22325355001</v>
-      </c>
-      <c r="AG29" s="3">
-        <f t="shared" si="22"/>
-        <v>199212.62548608551</v>
-      </c>
-      <c r="AH29" s="3">
-        <f t="shared" si="22"/>
-        <v>201204.75174094638</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="22"/>
-        <v>203216.79925835584</v>
-      </c>
-      <c r="AJ29" s="3">
-        <f t="shared" si="22"/>
-        <v>205248.9672509394</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="22"/>
-        <v>207301.4569234488</v>
-      </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="22"/>
-        <v>209374.47149268328</v>
-      </c>
-      <c r="AM29" s="3">
-        <f t="shared" si="22"/>
-        <v>211468.21620761012</v>
-      </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="22"/>
-        <v>213582.89836968621</v>
-      </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="22"/>
-        <v>215718.72735338309</v>
-      </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="22"/>
-        <v>217875.91462691693</v>
-      </c>
-      <c r="AQ29" s="3">
-        <f t="shared" si="22"/>
-        <v>220054.67377318611</v>
-      </c>
-      <c r="AR29" s="3">
-        <f t="shared" si="22"/>
-        <v>222255.22051091798</v>
-      </c>
-      <c r="AS29" s="3">
-        <f t="shared" si="22"/>
-        <v>224477.77271602716</v>
-      </c>
-      <c r="AT29" s="3">
-        <f t="shared" si="22"/>
-        <v>226722.55044318744</v>
-      </c>
-      <c r="AU29" s="3">
-        <f t="shared" si="22"/>
-        <v>228989.77594761932</v>
-      </c>
-      <c r="AV29" s="3">
-        <f t="shared" si="22"/>
-        <v>231279.6737070955</v>
-      </c>
-      <c r="AW29" s="3">
-        <f t="shared" si="22"/>
-        <v>233592.47044416645</v>
-      </c>
-      <c r="AX29" s="3">
-        <f t="shared" si="22"/>
-        <v>235928.39514860811</v>
-      </c>
-      <c r="AY29" s="3">
-        <f t="shared" si="22"/>
-        <v>238287.67910009419</v>
-      </c>
-      <c r="AZ29" s="3">
-        <f t="shared" si="22"/>
-        <v>240670.55589109514</v>
-      </c>
-      <c r="BA29" s="3">
-        <f t="shared" ref="BA29:CF29" si="23">AZ29*(1+$W$20)</f>
-        <v>243077.2614500061</v>
-      </c>
-      <c r="BB29" s="3">
+      <c r="P30" s="3">
         <f t="shared" si="23"/>
-        <v>245508.03406450615</v>
-      </c>
-      <c r="BC29" s="3">
+        <v>78763.078799999988</v>
+      </c>
+      <c r="Q30" s="3">
         <f t="shared" si="23"/>
-        <v>247963.11440515122</v>
-      </c>
-      <c r="BD29" s="3">
+        <v>89789.909831999976</v>
+      </c>
+      <c r="R30" s="3">
         <f t="shared" si="23"/>
-        <v>250442.74554920275</v>
-      </c>
-      <c r="BE29" s="3">
+        <v>102360.49720847997</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="23"/>
-        <v>252947.17300469478</v>
-      </c>
-      <c r="BF29" s="3">
+        <v>116690.96681766714</v>
+      </c>
+      <c r="T30" s="3">
         <f t="shared" si="23"/>
-        <v>255476.64473474174</v>
-      </c>
-      <c r="BG29" s="3">
-        <f t="shared" si="23"/>
-        <v>258031.41118208916</v>
-      </c>
-      <c r="BH29" s="3">
-        <f t="shared" si="23"/>
-        <v>260611.72529391004</v>
-      </c>
-      <c r="BI29" s="3">
-        <f t="shared" si="23"/>
-        <v>263217.84254684916</v>
-      </c>
-      <c r="BJ29" s="3">
-        <f t="shared" si="23"/>
-        <v>265850.02097231767</v>
-      </c>
-      <c r="BK29" s="3">
-        <f t="shared" si="23"/>
-        <v>268508.52118204086</v>
-      </c>
-      <c r="BL29" s="3">
-        <f t="shared" si="23"/>
-        <v>271193.60639386129</v>
-      </c>
-      <c r="BM29" s="3">
-        <f t="shared" si="23"/>
-        <v>273905.54245779989</v>
-      </c>
-      <c r="BN29" s="3">
-        <f t="shared" si="23"/>
-        <v>276644.59788237792</v>
-      </c>
-      <c r="BO29" s="3">
-        <f t="shared" si="23"/>
-        <v>279411.04386120167</v>
-      </c>
-      <c r="BP29" s="3">
-        <f t="shared" si="23"/>
-        <v>282205.15429981367</v>
-      </c>
-      <c r="BQ29" s="3">
-        <f t="shared" si="23"/>
-        <v>285027.20584281179</v>
-      </c>
-      <c r="BR29" s="3">
-        <f t="shared" si="23"/>
-        <v>287877.47790123994</v>
-      </c>
-      <c r="BS29" s="3">
-        <f t="shared" si="23"/>
-        <v>290756.25268025236</v>
-      </c>
-      <c r="BT29" s="3">
-        <f t="shared" si="23"/>
-        <v>293663.8152070549</v>
-      </c>
-      <c r="BU29" s="3">
-        <f t="shared" si="23"/>
-        <v>296600.45335912547</v>
-      </c>
-      <c r="BV29" s="3">
-        <f t="shared" si="23"/>
-        <v>299566.45789271675</v>
-      </c>
-      <c r="BW29" s="3">
-        <f t="shared" si="23"/>
-        <v>302562.1224716439</v>
-      </c>
-      <c r="BX29" s="3">
-        <f t="shared" si="23"/>
-        <v>305587.74369636032</v>
-      </c>
-      <c r="BY29" s="3">
-        <f t="shared" si="23"/>
-        <v>308643.62113332393</v>
-      </c>
-      <c r="BZ29" s="3">
-        <f t="shared" si="23"/>
-        <v>311730.05734465719</v>
-      </c>
-      <c r="CA29" s="3">
-        <f t="shared" si="23"/>
-        <v>314847.35791810375</v>
-      </c>
-      <c r="CB29" s="3">
-        <f t="shared" si="23"/>
-        <v>317995.83149728482</v>
-      </c>
-      <c r="CC29" s="3">
-        <f t="shared" si="23"/>
-        <v>321175.78981225769</v>
-      </c>
-      <c r="CD29" s="3">
-        <f t="shared" si="23"/>
-        <v>324387.54771038028</v>
-      </c>
-      <c r="CE29" s="3">
-        <f t="shared" si="23"/>
-        <v>327631.42318748409</v>
-      </c>
-      <c r="CF29" s="3">
-        <f t="shared" si="23"/>
-        <v>330907.73741935892</v>
-      </c>
-      <c r="CG29" s="3">
-        <f t="shared" ref="CG29:DK29" si="24">CF29*(1+$W$20)</f>
-        <v>334216.8147935525</v>
-      </c>
-      <c r="CH29" s="3">
-        <f t="shared" si="24"/>
-        <v>337558.98294148804</v>
-      </c>
-      <c r="CI29" s="3">
-        <f t="shared" si="24"/>
-        <v>340934.57277090295</v>
-      </c>
-      <c r="CJ29" s="3">
-        <f t="shared" si="24"/>
-        <v>344343.91849861195</v>
-      </c>
-      <c r="CK29" s="3">
-        <f t="shared" si="24"/>
-        <v>347787.35768359806</v>
-      </c>
-      <c r="CL29" s="3">
-        <f t="shared" si="24"/>
-        <v>351265.23126043403</v>
-      </c>
-      <c r="CM29" s="3">
-        <f t="shared" si="24"/>
-        <v>354777.88357303839</v>
-      </c>
-      <c r="CN29" s="3">
-        <f t="shared" si="24"/>
-        <v>358325.66240876878</v>
-      </c>
-      <c r="CO29" s="3">
-        <f t="shared" si="24"/>
-        <v>361908.91903285647</v>
-      </c>
-      <c r="CP29" s="3">
-        <f t="shared" si="24"/>
-        <v>365528.00822318502</v>
-      </c>
-      <c r="CQ29" s="3">
-        <f t="shared" si="24"/>
-        <v>369183.28830541688</v>
-      </c>
-      <c r="CR29" s="3">
-        <f t="shared" si="24"/>
-        <v>372875.12118847104</v>
-      </c>
-      <c r="CS29" s="3">
-        <f t="shared" si="24"/>
-        <v>376603.87240035576</v>
-      </c>
-      <c r="CT29" s="3">
-        <f t="shared" si="24"/>
-        <v>380369.91112435929</v>
-      </c>
-      <c r="CU29" s="3">
-        <f t="shared" si="24"/>
-        <v>384173.61023560289</v>
-      </c>
-      <c r="CV29" s="3">
-        <f t="shared" si="24"/>
-        <v>388015.34633795894</v>
-      </c>
-      <c r="CW29" s="3">
-        <f t="shared" si="24"/>
-        <v>391895.49980133853</v>
-      </c>
-      <c r="CX29" s="3">
-        <f t="shared" si="24"/>
-        <v>395814.45479935192</v>
-      </c>
-      <c r="CY29" s="3">
-        <f t="shared" si="24"/>
-        <v>399772.59934734547</v>
-      </c>
-      <c r="CZ29" s="3">
-        <f t="shared" si="24"/>
-        <v>403770.3253408189</v>
-      </c>
-      <c r="DA29" s="3">
-        <f t="shared" si="24"/>
-        <v>407808.0285942271</v>
-      </c>
-      <c r="DB29" s="3">
-        <f t="shared" si="24"/>
-        <v>411886.1088801694</v>
-      </c>
-      <c r="DC29" s="3">
-        <f t="shared" si="24"/>
-        <v>416004.9699689711</v>
-      </c>
-      <c r="DD29" s="3">
-        <f t="shared" si="24"/>
-        <v>420165.01966866083</v>
-      </c>
-      <c r="DE29" s="3">
-        <f t="shared" si="24"/>
-        <v>424366.66986534745</v>
-      </c>
-      <c r="DF29" s="3">
-        <f t="shared" si="24"/>
-        <v>428610.33656400093</v>
-      </c>
-      <c r="DG29" s="3">
-        <f t="shared" si="24"/>
-        <v>432896.43992964097</v>
-      </c>
-      <c r="DH29" s="3">
-        <f t="shared" si="24"/>
-        <v>437225.40432893741</v>
-      </c>
-      <c r="DI29" s="3">
-        <f t="shared" si="24"/>
-        <v>441597.65837222681</v>
-      </c>
-      <c r="DJ29" s="3">
-        <f t="shared" si="24"/>
-        <v>446013.63495594909</v>
-      </c>
-      <c r="DK29" s="3">
-        <f t="shared" si="24"/>
-        <v>450473.77130550856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+        <v>133027.70217214053</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" ref="U30:AZ30" si="24">T30*(1+$W$20)</f>
+        <v>134357.97919386195</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="24"/>
+        <v>135701.55898580057</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="24"/>
+        <v>137058.57457565857</v>
+      </c>
+      <c r="X30" s="3">
+        <f t="shared" si="24"/>
+        <v>138429.16032141514</v>
+      </c>
+      <c r="Y30" s="3">
+        <f t="shared" si="24"/>
+        <v>139813.45192462931</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="24"/>
+        <v>141211.5864438756</v>
+      </c>
+      <c r="AA30" s="3">
+        <f t="shared" si="24"/>
+        <v>142623.70230831436</v>
+      </c>
+      <c r="AB30" s="3">
+        <f t="shared" si="24"/>
+        <v>144049.9393313975</v>
+      </c>
+      <c r="AC30" s="3">
+        <f t="shared" si="24"/>
+        <v>145490.43872471148</v>
+      </c>
+      <c r="AD30" s="3">
+        <f t="shared" si="24"/>
+        <v>146945.34311195859</v>
+      </c>
+      <c r="AE30" s="3">
+        <f t="shared" si="24"/>
+        <v>148414.79654307818</v>
+      </c>
+      <c r="AF30" s="3">
+        <f t="shared" si="24"/>
+        <v>149898.94450850895</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="24"/>
+        <v>151397.93395359404</v>
+      </c>
+      <c r="AH30" s="3">
+        <f t="shared" si="24"/>
+        <v>152911.91329312997</v>
+      </c>
+      <c r="AI30" s="3">
+        <f t="shared" si="24"/>
+        <v>154441.03242606128</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="24"/>
+        <v>155985.4427503219</v>
+      </c>
+      <c r="AK30" s="3">
+        <f t="shared" si="24"/>
+        <v>157545.29717782512</v>
+      </c>
+      <c r="AL30" s="3">
+        <f t="shared" si="24"/>
+        <v>159120.75014960338</v>
+      </c>
+      <c r="AM30" s="3">
+        <f t="shared" si="24"/>
+        <v>160711.95765109942</v>
+      </c>
+      <c r="AN30" s="3">
+        <f t="shared" si="24"/>
+        <v>162319.07722761043</v>
+      </c>
+      <c r="AO30" s="3">
+        <f t="shared" si="24"/>
+        <v>163942.26799988654</v>
+      </c>
+      <c r="AP30" s="3">
+        <f t="shared" si="24"/>
+        <v>165581.69067988539</v>
+      </c>
+      <c r="AQ30" s="3">
+        <f t="shared" si="24"/>
+        <v>167237.50758668425</v>
+      </c>
+      <c r="AR30" s="3">
+        <f t="shared" si="24"/>
+        <v>168909.8826625511</v>
+      </c>
+      <c r="AS30" s="3">
+        <f t="shared" si="24"/>
+        <v>170598.9814891766</v>
+      </c>
+      <c r="AT30" s="3">
+        <f t="shared" si="24"/>
+        <v>172304.97130406837</v>
+      </c>
+      <c r="AU30" s="3">
+        <f t="shared" si="24"/>
+        <v>174028.02101710904</v>
+      </c>
+      <c r="AV30" s="3">
+        <f t="shared" si="24"/>
+        <v>175768.30122728014</v>
+      </c>
+      <c r="AW30" s="3">
+        <f t="shared" si="24"/>
+        <v>177525.98423955296</v>
+      </c>
+      <c r="AX30" s="3">
+        <f t="shared" si="24"/>
+        <v>179301.24408194848</v>
+      </c>
+      <c r="AY30" s="3">
+        <f t="shared" si="24"/>
+        <v>181094.25652276797</v>
+      </c>
+      <c r="AZ30" s="3">
+        <f t="shared" si="24"/>
+        <v>182905.19908799566</v>
+      </c>
+      <c r="BA30" s="3">
+        <f t="shared" ref="BA30:CF30" si="25">AZ30*(1+$W$20)</f>
+        <v>184734.25107887562</v>
+      </c>
+      <c r="BB30" s="3">
+        <f t="shared" si="25"/>
+        <v>186581.59358966438</v>
+      </c>
+      <c r="BC30" s="3">
+        <f t="shared" si="25"/>
+        <v>188447.40952556103</v>
+      </c>
+      <c r="BD30" s="3">
+        <f t="shared" si="25"/>
+        <v>190331.88362081663</v>
+      </c>
+      <c r="BE30" s="3">
+        <f t="shared" si="25"/>
+        <v>192235.2024570248</v>
+      </c>
+      <c r="BF30" s="3">
+        <f t="shared" si="25"/>
+        <v>194157.55448159506</v>
+      </c>
+      <c r="BG30" s="3">
+        <f t="shared" si="25"/>
+        <v>196099.130026411</v>
+      </c>
+      <c r="BH30" s="3">
+        <f t="shared" si="25"/>
+        <v>198060.12132667511</v>
+      </c>
+      <c r="BI30" s="3">
+        <f t="shared" si="25"/>
+        <v>200040.72253994187</v>
+      </c>
+      <c r="BJ30" s="3">
+        <f t="shared" si="25"/>
+        <v>202041.12976534129</v>
+      </c>
+      <c r="BK30" s="3">
+        <f t="shared" si="25"/>
+        <v>204061.54106299471</v>
+      </c>
+      <c r="BL30" s="3">
+        <f t="shared" si="25"/>
+        <v>206102.15647362467</v>
+      </c>
+      <c r="BM30" s="3">
+        <f t="shared" si="25"/>
+        <v>208163.1780383609</v>
+      </c>
+      <c r="BN30" s="3">
+        <f t="shared" si="25"/>
+        <v>210244.80981874451</v>
+      </c>
+      <c r="BO30" s="3">
+        <f t="shared" si="25"/>
+        <v>212347.25791693197</v>
+      </c>
+      <c r="BP30" s="3">
+        <f t="shared" si="25"/>
+        <v>214470.73049610129</v>
+      </c>
+      <c r="BQ30" s="3">
+        <f t="shared" si="25"/>
+        <v>216615.4378010623</v>
+      </c>
+      <c r="BR30" s="3">
+        <f t="shared" si="25"/>
+        <v>218781.59217907293</v>
+      </c>
+      <c r="BS30" s="3">
+        <f t="shared" si="25"/>
+        <v>220969.40810086366</v>
+      </c>
+      <c r="BT30" s="3">
+        <f t="shared" si="25"/>
+        <v>223179.10218187229</v>
+      </c>
+      <c r="BU30" s="3">
+        <f t="shared" si="25"/>
+        <v>225410.89320369103</v>
+      </c>
+      <c r="BV30" s="3">
+        <f t="shared" si="25"/>
+        <v>227665.00213572793</v>
+      </c>
+      <c r="BW30" s="3">
+        <f t="shared" si="25"/>
+        <v>229941.65215708522</v>
+      </c>
+      <c r="BX30" s="3">
+        <f t="shared" si="25"/>
+        <v>232241.06867865607</v>
+      </c>
+      <c r="BY30" s="3">
+        <f t="shared" si="25"/>
+        <v>234563.47936544262</v>
+      </c>
+      <c r="BZ30" s="3">
+        <f t="shared" si="25"/>
+        <v>236909.11415909705</v>
+      </c>
+      <c r="CA30" s="3">
+        <f t="shared" si="25"/>
+        <v>239278.20530068802</v>
+      </c>
+      <c r="CB30" s="3">
+        <f t="shared" si="25"/>
+        <v>241670.98735369489</v>
+      </c>
+      <c r="CC30" s="3">
+        <f t="shared" si="25"/>
+        <v>244087.69722723184</v>
+      </c>
+      <c r="CD30" s="3">
+        <f t="shared" si="25"/>
+        <v>246528.57419950416</v>
+      </c>
+      <c r="CE30" s="3">
+        <f t="shared" si="25"/>
+        <v>248993.85994149919</v>
+      </c>
+      <c r="CF30" s="3">
+        <f t="shared" si="25"/>
+        <v>251483.7985409142</v>
+      </c>
+      <c r="CG30" s="3">
+        <f t="shared" ref="CG30:DK30" si="26">CF30*(1+$W$20)</f>
+        <v>253998.63652632333</v>
+      </c>
+      <c r="CH30" s="3">
+        <f t="shared" si="26"/>
+        <v>256538.62289158656</v>
+      </c>
+      <c r="CI30" s="3">
+        <f t="shared" si="26"/>
+        <v>259104.00912050242</v>
+      </c>
+      <c r="CJ30" s="3">
+        <f t="shared" si="26"/>
+        <v>261695.04921170746</v>
+      </c>
+      <c r="CK30" s="3">
+        <f t="shared" si="26"/>
+        <v>264311.99970382452</v>
+      </c>
+      <c r="CL30" s="3">
+        <f t="shared" si="26"/>
+        <v>266955.11970086279</v>
+      </c>
+      <c r="CM30" s="3">
+        <f t="shared" si="26"/>
+        <v>269624.67089787143</v>
+      </c>
+      <c r="CN30" s="3">
+        <f t="shared" si="26"/>
+        <v>272320.91760685015</v>
+      </c>
+      <c r="CO30" s="3">
+        <f t="shared" si="26"/>
+        <v>275044.12678291864</v>
+      </c>
+      <c r="CP30" s="3">
+        <f t="shared" si="26"/>
+        <v>277794.56805074785</v>
+      </c>
+      <c r="CQ30" s="3">
+        <f t="shared" si="26"/>
+        <v>280572.51373125531</v>
+      </c>
+      <c r="CR30" s="3">
+        <f t="shared" si="26"/>
+        <v>283378.23886856786</v>
+      </c>
+      <c r="CS30" s="3">
+        <f t="shared" si="26"/>
+        <v>286212.02125725354</v>
+      </c>
+      <c r="CT30" s="3">
+        <f t="shared" si="26"/>
+        <v>289074.14146982605</v>
+      </c>
+      <c r="CU30" s="3">
+        <f t="shared" si="26"/>
+        <v>291964.8828845243</v>
+      </c>
+      <c r="CV30" s="3">
+        <f t="shared" si="26"/>
+        <v>294884.53171336954</v>
+      </c>
+      <c r="CW30" s="3">
+        <f t="shared" si="26"/>
+        <v>297833.37703050324</v>
+      </c>
+      <c r="CX30" s="3">
+        <f t="shared" si="26"/>
+        <v>300811.71080080827</v>
+      </c>
+      <c r="CY30" s="3">
+        <f t="shared" si="26"/>
+        <v>303819.82790881634</v>
+      </c>
+      <c r="CZ30" s="3">
+        <f t="shared" si="26"/>
+        <v>306858.02618790453</v>
+      </c>
+      <c r="DA30" s="3">
+        <f t="shared" si="26"/>
+        <v>309926.60644978361</v>
+      </c>
+      <c r="DB30" s="3">
+        <f t="shared" si="26"/>
+        <v>313025.87251428142</v>
+      </c>
+      <c r="DC30" s="3">
+        <f t="shared" si="26"/>
+        <v>316156.13123942423</v>
+      </c>
+      <c r="DD30" s="3">
+        <f t="shared" si="26"/>
+        <v>319317.69255181844</v>
+      </c>
+      <c r="DE30" s="3">
+        <f t="shared" si="26"/>
+        <v>322510.86947733664</v>
+      </c>
+      <c r="DF30" s="3">
+        <f t="shared" si="26"/>
+        <v>325735.97817210999</v>
+      </c>
+      <c r="DG30" s="3">
+        <f t="shared" si="26"/>
+        <v>328993.33795383107</v>
+      </c>
+      <c r="DH30" s="3">
+        <f t="shared" si="26"/>
+        <v>332283.27133336937</v>
+      </c>
+      <c r="DI30" s="3">
+        <f t="shared" si="26"/>
+        <v>335606.10404670308</v>
+      </c>
+      <c r="DJ30" s="3">
+        <f t="shared" si="26"/>
+        <v>338962.16508717014</v>
+      </c>
+      <c r="DK30" s="3">
+        <f t="shared" si="26"/>
+        <v>342351.78673804185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="2">
-        <f>O33-O35</f>
+      <c r="O32" s="1">
+        <f>O34-O36</f>
         <v>36286</v>
       </c>
-      <c r="P31" s="2">
-        <f>O31+P16</f>
-        <v>105091.12489199996</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" ref="Q31:T31" si="25">P31+Q16</f>
-        <v>190901.3366127607</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="25"/>
-        <v>296707.90564440866</v>
-      </c>
-      <c r="S31" s="2">
-        <f t="shared" si="25"/>
-        <v>425965.4872823772</v>
-      </c>
-      <c r="T31" s="2">
-        <f t="shared" si="25"/>
-        <v>582660.04986736982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="P32" s="1">
+        <f>O32+P16</f>
+        <v>102155.71241199998</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ref="Q32:T32" si="27">P32+Q16</f>
+        <v>181435.80552975275</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="27"/>
+        <v>276355.47601205157</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="27"/>
+        <v>389490.63604468317</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="27"/>
+        <v>523816.19924929197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O34" s="1">
         <f>43889+33926</f>
         <v>77815</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O36" s="1">
         <f>28826+9987+2716</f>
         <v>41529</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45804C67-4715-4E35-8A90-4FAFD36BE991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D87B2-1353-42A8-97CC-D46540D9216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1695" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
+    <workbookView xWindow="645" yWindow="780" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,10 +754,10 @@
   <dimension ref="A1:DK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,367 +1245,367 @@
         <v>134325.5632046088</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" ref="U16:AZ16" si="11">T16*(1+$W$20)</f>
+        <f>T16*(1+$W$20)</f>
         <v>135668.81883665489</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="11"/>
+        <f>U16*(1+$W$20)</f>
         <v>137025.50702502145</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="11"/>
+        <f>V16*(1+$W$20)</f>
         <v>138395.76209527167</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="11"/>
+        <f>W16*(1+$W$20)</f>
         <v>139779.71971622438</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="11"/>
+        <f>X16*(1+$W$20)</f>
         <v>141177.51691338661</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="11"/>
+        <f>Y16*(1+$W$20)</f>
         <v>142589.29208252049</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="11"/>
+        <f>Z16*(1+$W$20)</f>
         <v>144015.18500334569</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="11"/>
+        <f>AA16*(1+$W$20)</f>
         <v>145455.33685337915</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="11"/>
+        <f>AB16*(1+$W$20)</f>
         <v>146909.89022191294</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="11"/>
+        <f>AC16*(1+$W$20)</f>
         <v>148378.98912413206</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="11"/>
+        <f>AD16*(1+$W$20)</f>
         <v>149862.77901537338</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="11"/>
+        <f>AE16*(1+$W$20)</f>
         <v>151361.40680552711</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="11"/>
+        <f>AF16*(1+$W$20)</f>
         <v>152875.02087358237</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="11"/>
+        <f>AG16*(1+$W$20)</f>
         <v>154403.77108231818</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="11"/>
+        <f>AH16*(1+$W$20)</f>
         <v>155947.80879314136</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="11"/>
+        <f>AI16*(1+$W$20)</f>
         <v>157507.28688107277</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="11"/>
+        <f>AJ16*(1+$W$20)</f>
         <v>159082.3597498835</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="11"/>
+        <f>AK16*(1+$W$20)</f>
         <v>160673.18334738235</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="11"/>
+        <f>AL16*(1+$W$20)</f>
         <v>162279.91518085619</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="11"/>
+        <f>AM16*(1+$W$20)</f>
         <v>163902.71433266476</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="11"/>
+        <f>AN16*(1+$W$20)</f>
         <v>165541.74147599141</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="11"/>
+        <f>AO16*(1+$W$20)</f>
         <v>167197.15889075134</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="11"/>
+        <f>AP16*(1+$W$20)</f>
         <v>168869.13047965884</v>
       </c>
       <c r="AR16" s="3">
-        <f t="shared" si="11"/>
+        <f>AQ16*(1+$W$20)</f>
         <v>170557.82178445542</v>
       </c>
       <c r="AS16" s="3">
-        <f t="shared" si="11"/>
+        <f>AR16*(1+$W$20)</f>
         <v>172263.40000229998</v>
       </c>
       <c r="AT16" s="3">
-        <f t="shared" si="11"/>
+        <f>AS16*(1+$W$20)</f>
         <v>173986.03400232299</v>
       </c>
       <c r="AU16" s="3">
-        <f t="shared" si="11"/>
+        <f>AT16*(1+$W$20)</f>
         <v>175725.89434234623</v>
       </c>
       <c r="AV16" s="3">
-        <f t="shared" si="11"/>
+        <f>AU16*(1+$W$20)</f>
         <v>177483.15328576969</v>
       </c>
       <c r="AW16" s="3">
-        <f t="shared" si="11"/>
+        <f>AV16*(1+$W$20)</f>
         <v>179257.98481862739</v>
       </c>
       <c r="AX16" s="3">
-        <f t="shared" si="11"/>
+        <f>AW16*(1+$W$20)</f>
         <v>181050.56466681368</v>
       </c>
       <c r="AY16" s="3">
-        <f t="shared" si="11"/>
+        <f>AX16*(1+$W$20)</f>
         <v>182861.07031348182</v>
       </c>
       <c r="AZ16" s="3">
-        <f t="shared" si="11"/>
+        <f>AY16*(1+$W$20)</f>
         <v>184689.68101661664</v>
       </c>
       <c r="BA16" s="3">
-        <f t="shared" ref="BA16:CF16" si="12">AZ16*(1+$W$20)</f>
+        <f>AZ16*(1+$W$20)</f>
         <v>186536.5778267828</v>
       </c>
       <c r="BB16" s="3">
-        <f t="shared" si="12"/>
+        <f>BA16*(1+$W$20)</f>
         <v>188401.94360505062</v>
       </c>
       <c r="BC16" s="3">
-        <f t="shared" si="12"/>
+        <f>BB16*(1+$W$20)</f>
         <v>190285.96304110112</v>
       </c>
       <c r="BD16" s="3">
-        <f t="shared" si="12"/>
+        <f>BC16*(1+$W$20)</f>
         <v>192188.82267151214</v>
       </c>
       <c r="BE16" s="3">
-        <f t="shared" si="12"/>
+        <f>BD16*(1+$W$20)</f>
         <v>194110.71089822726</v>
       </c>
       <c r="BF16" s="3">
-        <f t="shared" si="12"/>
+        <f>BE16*(1+$W$20)</f>
         <v>196051.81800720954</v>
       </c>
       <c r="BG16" s="3">
-        <f t="shared" si="12"/>
+        <f>BF16*(1+$W$20)</f>
         <v>198012.33618728165</v>
       </c>
       <c r="BH16" s="3">
-        <f t="shared" si="12"/>
+        <f>BG16*(1+$W$20)</f>
         <v>199992.45954915448</v>
       </c>
       <c r="BI16" s="3">
-        <f t="shared" si="12"/>
+        <f>BH16*(1+$W$20)</f>
         <v>201992.38414464603</v>
       </c>
       <c r="BJ16" s="3">
-        <f t="shared" si="12"/>
+        <f>BI16*(1+$W$20)</f>
         <v>204012.30798609249</v>
       </c>
       <c r="BK16" s="3">
-        <f t="shared" si="12"/>
+        <f>BJ16*(1+$W$20)</f>
         <v>206052.43106595342</v>
       </c>
       <c r="BL16" s="3">
-        <f t="shared" si="12"/>
+        <f>BK16*(1+$W$20)</f>
         <v>208112.95537661295</v>
       </c>
       <c r="BM16" s="3">
-        <f t="shared" si="12"/>
+        <f>BL16*(1+$W$20)</f>
         <v>210194.08493037909</v>
       </c>
       <c r="BN16" s="3">
-        <f t="shared" si="12"/>
+        <f>BM16*(1+$W$20)</f>
         <v>212296.02577968288</v>
       </c>
       <c r="BO16" s="3">
-        <f t="shared" si="12"/>
+        <f>BN16*(1+$W$20)</f>
         <v>214418.98603747971</v>
       </c>
       <c r="BP16" s="3">
-        <f t="shared" si="12"/>
+        <f>BO16*(1+$W$20)</f>
         <v>216563.17589785453</v>
       </c>
       <c r="BQ16" s="3">
-        <f t="shared" si="12"/>
+        <f>BP16*(1+$W$20)</f>
         <v>218728.80765683309</v>
       </c>
       <c r="BR16" s="3">
-        <f t="shared" si="12"/>
+        <f>BQ16*(1+$W$20)</f>
         <v>220916.09573340142</v>
       </c>
       <c r="BS16" s="3">
-        <f t="shared" si="12"/>
+        <f>BR16*(1+$W$20)</f>
         <v>223125.25669073543</v>
       </c>
       <c r="BT16" s="3">
-        <f t="shared" si="12"/>
+        <f>BS16*(1+$W$20)</f>
         <v>225356.50925764279</v>
       </c>
       <c r="BU16" s="3">
-        <f t="shared" si="12"/>
+        <f>BT16*(1+$W$20)</f>
         <v>227610.07435021922</v>
       </c>
       <c r="BV16" s="3">
-        <f t="shared" si="12"/>
+        <f>BU16*(1+$W$20)</f>
         <v>229886.17509372142</v>
       </c>
       <c r="BW16" s="3">
-        <f t="shared" si="12"/>
+        <f>BV16*(1+$W$20)</f>
         <v>232185.03684465864</v>
       </c>
       <c r="BX16" s="3">
-        <f t="shared" si="12"/>
+        <f>BW16*(1+$W$20)</f>
         <v>234506.88721310522</v>
       </c>
       <c r="BY16" s="3">
-        <f t="shared" si="12"/>
+        <f>BX16*(1+$W$20)</f>
         <v>236851.95608523628</v>
       </c>
       <c r="BZ16" s="3">
-        <f t="shared" si="12"/>
+        <f>BY16*(1+$W$20)</f>
         <v>239220.47564608866</v>
       </c>
       <c r="CA16" s="3">
-        <f t="shared" si="12"/>
+        <f>BZ16*(1+$W$20)</f>
         <v>241612.68040254954</v>
       </c>
       <c r="CB16" s="3">
-        <f t="shared" si="12"/>
+        <f>CA16*(1+$W$20)</f>
         <v>244028.80720657503</v>
       </c>
       <c r="CC16" s="3">
-        <f t="shared" si="12"/>
+        <f>CB16*(1+$W$20)</f>
         <v>246469.09527864077</v>
       </c>
       <c r="CD16" s="3">
-        <f t="shared" si="12"/>
+        <f>CC16*(1+$W$20)</f>
         <v>248933.78623142719</v>
       </c>
       <c r="CE16" s="3">
-        <f t="shared" si="12"/>
+        <f>CD16*(1+$W$20)</f>
         <v>251423.12409374147</v>
       </c>
       <c r="CF16" s="3">
-        <f t="shared" si="12"/>
+        <f>CE16*(1+$W$20)</f>
         <v>253937.3553346789</v>
       </c>
       <c r="CG16" s="3">
-        <f t="shared" ref="CG16:DG16" si="13">CF16*(1+$W$20)</f>
+        <f>CF16*(1+$W$20)</f>
         <v>256476.72888802568</v>
       </c>
       <c r="CH16" s="3">
-        <f t="shared" si="13"/>
+        <f>CG16*(1+$W$20)</f>
         <v>259041.49617690593</v>
       </c>
       <c r="CI16" s="3">
-        <f t="shared" si="13"/>
+        <f>CH16*(1+$W$20)</f>
         <v>261631.911138675</v>
       </c>
       <c r="CJ16" s="3">
-        <f t="shared" si="13"/>
+        <f>CI16*(1+$W$20)</f>
         <v>264248.23025006178</v>
       </c>
       <c r="CK16" s="3">
-        <f t="shared" si="13"/>
+        <f>CJ16*(1+$W$20)</f>
         <v>266890.71255256241</v>
       </c>
       <c r="CL16" s="3">
-        <f t="shared" si="13"/>
+        <f>CK16*(1+$W$20)</f>
         <v>269559.61967808806</v>
       </c>
       <c r="CM16" s="3">
-        <f t="shared" si="13"/>
+        <f>CL16*(1+$W$20)</f>
         <v>272255.21587486891</v>
       </c>
       <c r="CN16" s="3">
-        <f t="shared" si="13"/>
+        <f>CM16*(1+$W$20)</f>
         <v>274977.76803361758</v>
       </c>
       <c r="CO16" s="3">
-        <f t="shared" si="13"/>
+        <f>CN16*(1+$W$20)</f>
         <v>277727.54571395379</v>
       </c>
       <c r="CP16" s="3">
-        <f t="shared" si="13"/>
+        <f>CO16*(1+$W$20)</f>
         <v>280504.82117109332</v>
       </c>
       <c r="CQ16" s="3">
-        <f t="shared" si="13"/>
+        <f>CP16*(1+$W$20)</f>
         <v>283309.86938280426</v>
       </c>
       <c r="CR16" s="3">
-        <f t="shared" si="13"/>
+        <f>CQ16*(1+$W$20)</f>
         <v>286142.9680766323</v>
       </c>
       <c r="CS16" s="3">
-        <f t="shared" si="13"/>
+        <f>CR16*(1+$W$20)</f>
         <v>289004.3977573986</v>
       </c>
       <c r="CT16" s="3">
-        <f t="shared" si="13"/>
+        <f>CS16*(1+$W$20)</f>
         <v>291894.44173497258</v>
       </c>
       <c r="CU16" s="3">
-        <f t="shared" si="13"/>
+        <f>CT16*(1+$W$20)</f>
         <v>294813.38615232229</v>
       </c>
       <c r="CV16" s="3">
-        <f t="shared" si="13"/>
+        <f>CU16*(1+$W$20)</f>
         <v>297761.52001384553</v>
       </c>
       <c r="CW16" s="3">
-        <f t="shared" si="13"/>
+        <f>CV16*(1+$W$20)</f>
         <v>300739.135213984</v>
       </c>
       <c r="CX16" s="3">
-        <f t="shared" si="13"/>
+        <f>CW16*(1+$W$20)</f>
         <v>303746.52656612382</v>
       </c>
       <c r="CY16" s="3">
-        <f t="shared" si="13"/>
+        <f>CX16*(1+$W$20)</f>
         <v>306783.99183178507</v>
       </c>
       <c r="CZ16" s="3">
-        <f t="shared" si="13"/>
+        <f>CY16*(1+$W$20)</f>
         <v>309851.83175010292</v>
       </c>
       <c r="DA16" s="3">
-        <f t="shared" si="13"/>
+        <f>CZ16*(1+$W$20)</f>
         <v>312950.35006760398</v>
       </c>
       <c r="DB16" s="3">
-        <f t="shared" si="13"/>
+        <f>DA16*(1+$W$20)</f>
         <v>316079.85356828</v>
       </c>
       <c r="DC16" s="3">
-        <f t="shared" si="13"/>
+        <f>DB16*(1+$W$20)</f>
         <v>319240.65210396278</v>
       </c>
       <c r="DD16" s="3">
-        <f t="shared" si="13"/>
+        <f>DC16*(1+$W$20)</f>
         <v>322433.05862500239</v>
       </c>
       <c r="DE16" s="3">
-        <f t="shared" si="13"/>
+        <f>DD16*(1+$W$20)</f>
         <v>325657.38921125239</v>
       </c>
       <c r="DF16" s="3">
-        <f t="shared" si="13"/>
+        <f>DE16*(1+$W$20)</f>
         <v>328913.96310336492</v>
       </c>
       <c r="DG16" s="3">
-        <f t="shared" si="13"/>
+        <f>DF16*(1+$W$20)</f>
         <v>332203.10273439856</v>
       </c>
     </row>
@@ -1647,23 +1647,23 @@
         <v>0.21941112807816054</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:T20" si="14">P5/O5-1</f>
+        <f t="shared" ref="P20:T20" si="11">P5/O5-1</f>
         <v>0.1399999999999999</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -1682,11 +1682,11 @@
         <v>0.19497553697213643</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:O21" si="15">N15/N14</f>
+        <f t="shared" ref="N21:O21" si="12">N15/N14</f>
         <v>0.17563464620055663</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.11750137978857393</v>
       </c>
       <c r="P21" s="4">
@@ -1729,11 +1729,11 @@
         <v>0.78347297378418479</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" ref="N23:O23" si="16">N7/N5</f>
+        <f t="shared" ref="N23:O23" si="13">N7/N5</f>
         <v>0.8075714222176098</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.81665157050717019</v>
       </c>
       <c r="P23" s="6">
@@ -1768,31 +1768,31 @@
         <v>0.24821411726367604</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:T24" si="17">N12/N5</f>
+        <f t="shared" ref="N24:T24" si="14">N12/N5</f>
         <v>0.34655527716416362</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.42176035404040096</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.43300660786256606</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.44074647570531467</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.44833154619120846</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.45576491526738427</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.46304961696203656</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -1812,31 +1812,31 @@
         <v>0.16541604850397482</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" ref="N25:T25" si="18">N30/N5</f>
+        <f t="shared" ref="N25:T25" si="15">N30/N5</f>
         <v>0.32666676550384721</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.32870316897769619</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.42</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.42</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.42</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.42</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.42</v>
       </c>
     </row>
@@ -1849,11 +1849,11 @@
         <v>0.53525885652050875</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" ref="N26:T26" si="19">N11/N5</f>
+        <f t="shared" ref="N26:O26" si="16">N11/N5</f>
         <v>0.46101614505344618</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.39489121646676922</v>
       </c>
       <c r="P26" s="4">
@@ -1861,19 +1861,19 @@
         <v>0.38699339213743383</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" ref="Q26:T26" si="20">P26*0.98</f>
+        <f t="shared" ref="Q26:T26" si="17">P26*0.98</f>
         <v>0.37925352429468517</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.37166845380879149</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.36423508473261568</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.35695038303796334</v>
       </c>
     </row>
@@ -1905,19 +1905,19 @@
         <v>112518.68399999999</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ref="Q28:T28" si="21">Q5*0.6</f>
+        <f t="shared" ref="Q28:T28" si="18">Q5*0.6</f>
         <v>128271.29975999997</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>146229.28172639996</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>166701.38116809592</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>190039.57453162933</v>
       </c>
     </row>
@@ -1939,19 +1939,19 @@
         <v>33755.605199999998</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29:T29" si="22">Q5*0.18</f>
+        <f t="shared" ref="Q29:T29" si="19">Q5*0.18</f>
         <v>38481.38992799999</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>43868.784517919987</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>50010.414350428779</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>57011.8723594888</v>
       </c>
     </row>
@@ -1964,411 +1964,411 @@
         <v>19289</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" ref="N30:T30" si="23">N28-N29</f>
+        <f t="shared" ref="N30:T30" si="20">N28-N29</f>
         <v>44068</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>54072</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>78763.078799999988</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>89789.909831999976</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>102360.49720847997</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>116690.96681766714</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>133027.70217214053</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" ref="U30:AZ30" si="24">T30*(1+$W$20)</f>
+        <f>T30*(1+$W$20)</f>
         <v>134357.97919386195</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="24"/>
+        <f>U30*(1+$W$20)</f>
         <v>135701.55898580057</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="24"/>
+        <f>V30*(1+$W$20)</f>
         <v>137058.57457565857</v>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="24"/>
+        <f>W30*(1+$W$20)</f>
         <v>138429.16032141514</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="24"/>
+        <f>X30*(1+$W$20)</f>
         <v>139813.45192462931</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="24"/>
+        <f>Y30*(1+$W$20)</f>
         <v>141211.5864438756</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="24"/>
+        <f>Z30*(1+$W$20)</f>
         <v>142623.70230831436</v>
       </c>
       <c r="AB30" s="3">
-        <f t="shared" si="24"/>
+        <f>AA30*(1+$W$20)</f>
         <v>144049.9393313975</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="24"/>
+        <f>AB30*(1+$W$20)</f>
         <v>145490.43872471148</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="24"/>
+        <f>AC30*(1+$W$20)</f>
         <v>146945.34311195859</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="24"/>
+        <f>AD30*(1+$W$20)</f>
         <v>148414.79654307818</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="24"/>
+        <f>AE30*(1+$W$20)</f>
         <v>149898.94450850895</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" si="24"/>
+        <f>AF30*(1+$W$20)</f>
         <v>151397.93395359404</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="24"/>
+        <f>AG30*(1+$W$20)</f>
         <v>152911.91329312997</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="24"/>
+        <f>AH30*(1+$W$20)</f>
         <v>154441.03242606128</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" si="24"/>
+        <f>AI30*(1+$W$20)</f>
         <v>155985.4427503219</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="24"/>
+        <f>AJ30*(1+$W$20)</f>
         <v>157545.29717782512</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="24"/>
+        <f>AK30*(1+$W$20)</f>
         <v>159120.75014960338</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="24"/>
+        <f>AL30*(1+$W$20)</f>
         <v>160711.95765109942</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" si="24"/>
+        <f>AM30*(1+$W$20)</f>
         <v>162319.07722761043</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" si="24"/>
+        <f>AN30*(1+$W$20)</f>
         <v>163942.26799988654</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" si="24"/>
+        <f>AO30*(1+$W$20)</f>
         <v>165581.69067988539</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="24"/>
+        <f>AP30*(1+$W$20)</f>
         <v>167237.50758668425</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="24"/>
+        <f>AQ30*(1+$W$20)</f>
         <v>168909.8826625511</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="24"/>
+        <f>AR30*(1+$W$20)</f>
         <v>170598.9814891766</v>
       </c>
       <c r="AT30" s="3">
-        <f t="shared" si="24"/>
+        <f>AS30*(1+$W$20)</f>
         <v>172304.97130406837</v>
       </c>
       <c r="AU30" s="3">
-        <f t="shared" si="24"/>
+        <f>AT30*(1+$W$20)</f>
         <v>174028.02101710904</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="24"/>
+        <f>AU30*(1+$W$20)</f>
         <v>175768.30122728014</v>
       </c>
       <c r="AW30" s="3">
-        <f t="shared" si="24"/>
+        <f>AV30*(1+$W$20)</f>
         <v>177525.98423955296</v>
       </c>
       <c r="AX30" s="3">
-        <f t="shared" si="24"/>
+        <f>AW30*(1+$W$20)</f>
         <v>179301.24408194848</v>
       </c>
       <c r="AY30" s="3">
-        <f t="shared" si="24"/>
+        <f>AX30*(1+$W$20)</f>
         <v>181094.25652276797</v>
       </c>
       <c r="AZ30" s="3">
-        <f t="shared" si="24"/>
+        <f>AY30*(1+$W$20)</f>
         <v>182905.19908799566</v>
       </c>
       <c r="BA30" s="3">
-        <f t="shared" ref="BA30:CF30" si="25">AZ30*(1+$W$20)</f>
+        <f>AZ30*(1+$W$20)</f>
         <v>184734.25107887562</v>
       </c>
       <c r="BB30" s="3">
-        <f t="shared" si="25"/>
+        <f>BA30*(1+$W$20)</f>
         <v>186581.59358966438</v>
       </c>
       <c r="BC30" s="3">
-        <f t="shared" si="25"/>
+        <f>BB30*(1+$W$20)</f>
         <v>188447.40952556103</v>
       </c>
       <c r="BD30" s="3">
-        <f t="shared" si="25"/>
+        <f>BC30*(1+$W$20)</f>
         <v>190331.88362081663</v>
       </c>
       <c r="BE30" s="3">
-        <f t="shared" si="25"/>
+        <f>BD30*(1+$W$20)</f>
         <v>192235.2024570248</v>
       </c>
       <c r="BF30" s="3">
-        <f t="shared" si="25"/>
+        <f>BE30*(1+$W$20)</f>
         <v>194157.55448159506</v>
       </c>
       <c r="BG30" s="3">
-        <f t="shared" si="25"/>
+        <f>BF30*(1+$W$20)</f>
         <v>196099.130026411</v>
       </c>
       <c r="BH30" s="3">
-        <f t="shared" si="25"/>
+        <f>BG30*(1+$W$20)</f>
         <v>198060.12132667511</v>
       </c>
       <c r="BI30" s="3">
-        <f t="shared" si="25"/>
+        <f>BH30*(1+$W$20)</f>
         <v>200040.72253994187</v>
       </c>
       <c r="BJ30" s="3">
-        <f t="shared" si="25"/>
+        <f>BI30*(1+$W$20)</f>
         <v>202041.12976534129</v>
       </c>
       <c r="BK30" s="3">
-        <f t="shared" si="25"/>
+        <f>BJ30*(1+$W$20)</f>
         <v>204061.54106299471</v>
       </c>
       <c r="BL30" s="3">
-        <f t="shared" si="25"/>
+        <f>BK30*(1+$W$20)</f>
         <v>206102.15647362467</v>
       </c>
       <c r="BM30" s="3">
-        <f t="shared" si="25"/>
+        <f>BL30*(1+$W$20)</f>
         <v>208163.1780383609</v>
       </c>
       <c r="BN30" s="3">
-        <f t="shared" si="25"/>
+        <f>BM30*(1+$W$20)</f>
         <v>210244.80981874451</v>
       </c>
       <c r="BO30" s="3">
-        <f t="shared" si="25"/>
+        <f>BN30*(1+$W$20)</f>
         <v>212347.25791693197</v>
       </c>
       <c r="BP30" s="3">
-        <f t="shared" si="25"/>
+        <f>BO30*(1+$W$20)</f>
         <v>214470.73049610129</v>
       </c>
       <c r="BQ30" s="3">
-        <f t="shared" si="25"/>
+        <f>BP30*(1+$W$20)</f>
         <v>216615.4378010623</v>
       </c>
       <c r="BR30" s="3">
-        <f t="shared" si="25"/>
+        <f>BQ30*(1+$W$20)</f>
         <v>218781.59217907293</v>
       </c>
       <c r="BS30" s="3">
-        <f t="shared" si="25"/>
+        <f>BR30*(1+$W$20)</f>
         <v>220969.40810086366</v>
       </c>
       <c r="BT30" s="3">
-        <f t="shared" si="25"/>
+        <f>BS30*(1+$W$20)</f>
         <v>223179.10218187229</v>
       </c>
       <c r="BU30" s="3">
-        <f t="shared" si="25"/>
+        <f>BT30*(1+$W$20)</f>
         <v>225410.89320369103</v>
       </c>
       <c r="BV30" s="3">
-        <f t="shared" si="25"/>
+        <f>BU30*(1+$W$20)</f>
         <v>227665.00213572793</v>
       </c>
       <c r="BW30" s="3">
-        <f t="shared" si="25"/>
+        <f>BV30*(1+$W$20)</f>
         <v>229941.65215708522</v>
       </c>
       <c r="BX30" s="3">
-        <f t="shared" si="25"/>
+        <f>BW30*(1+$W$20)</f>
         <v>232241.06867865607</v>
       </c>
       <c r="BY30" s="3">
-        <f t="shared" si="25"/>
+        <f>BX30*(1+$W$20)</f>
         <v>234563.47936544262</v>
       </c>
       <c r="BZ30" s="3">
-        <f t="shared" si="25"/>
+        <f>BY30*(1+$W$20)</f>
         <v>236909.11415909705</v>
       </c>
       <c r="CA30" s="3">
-        <f t="shared" si="25"/>
+        <f>BZ30*(1+$W$20)</f>
         <v>239278.20530068802</v>
       </c>
       <c r="CB30" s="3">
-        <f t="shared" si="25"/>
+        <f>CA30*(1+$W$20)</f>
         <v>241670.98735369489</v>
       </c>
       <c r="CC30" s="3">
-        <f t="shared" si="25"/>
+        <f>CB30*(1+$W$20)</f>
         <v>244087.69722723184</v>
       </c>
       <c r="CD30" s="3">
-        <f t="shared" si="25"/>
+        <f>CC30*(1+$W$20)</f>
         <v>246528.57419950416</v>
       </c>
       <c r="CE30" s="3">
-        <f t="shared" si="25"/>
+        <f>CD30*(1+$W$20)</f>
         <v>248993.85994149919</v>
       </c>
       <c r="CF30" s="3">
-        <f t="shared" si="25"/>
+        <f>CE30*(1+$W$20)</f>
         <v>251483.7985409142</v>
       </c>
       <c r="CG30" s="3">
-        <f t="shared" ref="CG30:DK30" si="26">CF30*(1+$W$20)</f>
+        <f>CF30*(1+$W$20)</f>
         <v>253998.63652632333</v>
       </c>
       <c r="CH30" s="3">
-        <f t="shared" si="26"/>
+        <f>CG30*(1+$W$20)</f>
         <v>256538.62289158656</v>
       </c>
       <c r="CI30" s="3">
-        <f t="shared" si="26"/>
+        <f>CH30*(1+$W$20)</f>
         <v>259104.00912050242</v>
       </c>
       <c r="CJ30" s="3">
-        <f t="shared" si="26"/>
+        <f>CI30*(1+$W$20)</f>
         <v>261695.04921170746</v>
       </c>
       <c r="CK30" s="3">
-        <f t="shared" si="26"/>
+        <f>CJ30*(1+$W$20)</f>
         <v>264311.99970382452</v>
       </c>
       <c r="CL30" s="3">
-        <f t="shared" si="26"/>
+        <f>CK30*(1+$W$20)</f>
         <v>266955.11970086279</v>
       </c>
       <c r="CM30" s="3">
-        <f t="shared" si="26"/>
+        <f>CL30*(1+$W$20)</f>
         <v>269624.67089787143</v>
       </c>
       <c r="CN30" s="3">
-        <f t="shared" si="26"/>
+        <f>CM30*(1+$W$20)</f>
         <v>272320.91760685015</v>
       </c>
       <c r="CO30" s="3">
-        <f t="shared" si="26"/>
+        <f>CN30*(1+$W$20)</f>
         <v>275044.12678291864</v>
       </c>
       <c r="CP30" s="3">
-        <f t="shared" si="26"/>
+        <f>CO30*(1+$W$20)</f>
         <v>277794.56805074785</v>
       </c>
       <c r="CQ30" s="3">
-        <f t="shared" si="26"/>
+        <f>CP30*(1+$W$20)</f>
         <v>280572.51373125531</v>
       </c>
       <c r="CR30" s="3">
-        <f t="shared" si="26"/>
+        <f>CQ30*(1+$W$20)</f>
         <v>283378.23886856786</v>
       </c>
       <c r="CS30" s="3">
-        <f t="shared" si="26"/>
+        <f>CR30*(1+$W$20)</f>
         <v>286212.02125725354</v>
       </c>
       <c r="CT30" s="3">
-        <f t="shared" si="26"/>
+        <f>CS30*(1+$W$20)</f>
         <v>289074.14146982605</v>
       </c>
       <c r="CU30" s="3">
-        <f t="shared" si="26"/>
+        <f>CT30*(1+$W$20)</f>
         <v>291964.8828845243</v>
       </c>
       <c r="CV30" s="3">
-        <f t="shared" si="26"/>
+        <f>CU30*(1+$W$20)</f>
         <v>294884.53171336954</v>
       </c>
       <c r="CW30" s="3">
-        <f t="shared" si="26"/>
+        <f>CV30*(1+$W$20)</f>
         <v>297833.37703050324</v>
       </c>
       <c r="CX30" s="3">
-        <f t="shared" si="26"/>
+        <f>CW30*(1+$W$20)</f>
         <v>300811.71080080827</v>
       </c>
       <c r="CY30" s="3">
-        <f t="shared" si="26"/>
+        <f>CX30*(1+$W$20)</f>
         <v>303819.82790881634</v>
       </c>
       <c r="CZ30" s="3">
-        <f t="shared" si="26"/>
+        <f>CY30*(1+$W$20)</f>
         <v>306858.02618790453</v>
       </c>
       <c r="DA30" s="3">
-        <f t="shared" si="26"/>
+        <f>CZ30*(1+$W$20)</f>
         <v>309926.60644978361</v>
       </c>
       <c r="DB30" s="3">
-        <f t="shared" si="26"/>
+        <f>DA30*(1+$W$20)</f>
         <v>313025.87251428142</v>
       </c>
       <c r="DC30" s="3">
-        <f t="shared" si="26"/>
+        <f>DB30*(1+$W$20)</f>
         <v>316156.13123942423</v>
       </c>
       <c r="DD30" s="3">
-        <f t="shared" si="26"/>
+        <f>DC30*(1+$W$20)</f>
         <v>319317.69255181844</v>
       </c>
       <c r="DE30" s="3">
-        <f t="shared" si="26"/>
+        <f>DD30*(1+$W$20)</f>
         <v>322510.86947733664</v>
       </c>
       <c r="DF30" s="3">
-        <f t="shared" si="26"/>
+        <f>DE30*(1+$W$20)</f>
         <v>325735.97817210999</v>
       </c>
       <c r="DG30" s="3">
-        <f t="shared" si="26"/>
+        <f>DF30*(1+$W$20)</f>
         <v>328993.33795383107</v>
       </c>
       <c r="DH30" s="3">
-        <f t="shared" si="26"/>
+        <f>DG30*(1+$W$20)</f>
         <v>332283.27133336937</v>
       </c>
       <c r="DI30" s="3">
-        <f t="shared" si="26"/>
+        <f>DH30*(1+$W$20)</f>
         <v>335606.10404670308</v>
       </c>
       <c r="DJ30" s="3">
-        <f t="shared" si="26"/>
+        <f>DI30*(1+$W$20)</f>
         <v>338962.16508717014</v>
       </c>
       <c r="DK30" s="3">
-        <f t="shared" si="26"/>
+        <f>DJ30*(1+$W$20)</f>
         <v>342351.78673804185</v>
       </c>
     </row>
@@ -2403,19 +2403,19 @@
         <v>102155.71241199998</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" ref="Q32:T32" si="27">P32+Q16</f>
+        <f t="shared" ref="Q32:T32" si="21">P32+Q16</f>
         <v>181435.80552975275</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>276355.47601205157</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>389490.63604468317</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>523816.19924929197</v>
       </c>
     </row>

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D87B2-1353-42A8-97CC-D46540D9216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C00C3B9-0314-4A46-BEB3-16B86CAE41A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="780" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" xr2:uid="{27F3582B-0D61-4416-BCF9-804F6891F111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>META</t>
   </si>
@@ -181,13 +181,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -223,16 +229,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0B066-5213-42B1-820E-C438AF6621F9}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -686,20 +694,20 @@
     <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
@@ -707,17 +715,20 @@
         <f>2189.9+343.8</f>
         <v>2533.7000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>1512618.9000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1634236.5000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
@@ -725,8 +736,11 @@
         <f>43889+33926</f>
         <v>77815</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
@@ -734,14 +748,17 @@
         <f>28826+9987+2716</f>
         <v>41529</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>1476332.9000000001</v>
+        <v>1597950.5000000002</v>
       </c>
     </row>
   </sheetData>
@@ -753,11 +770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C755AA4-BDC3-4CA3-B5F0-D343E2844B7B}">
   <dimension ref="A1:DK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,23 +1135,23 @@
       </c>
       <c r="P13" s="1">
         <f>O32*$W$19</f>
-        <v>2177.16</v>
+        <v>1451.44</v>
       </c>
       <c r="Q13" s="1">
         <f>P32*$W$19</f>
-        <v>6129.3427447199983</v>
+        <v>4063.2957444799995</v>
       </c>
       <c r="R13" s="1">
         <f>Q32*$W$19</f>
-        <v>10886.148331785163</v>
+        <v>7169.2123839825254</v>
       </c>
       <c r="S13" s="1">
         <f>R32*$W$19</f>
-        <v>16581.328560723094</v>
+        <v>10848.544027323915</v>
       </c>
       <c r="T13" s="1">
         <f>S32*$W$19</f>
-        <v>23369.438162680988</v>
+        <v>15192.794437373763</v>
       </c>
     </row>
     <row r="14" spans="1:111" x14ac:dyDescent="0.2">
@@ -1155,23 +1172,23 @@
       </c>
       <c r="P14" s="1">
         <f t="shared" si="8"/>
-        <v>83379.382799999978</v>
+        <v>82653.662799999976</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="8"/>
-        <v>100354.54825031993</v>
+        <v>98288.501250079935</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="8"/>
-        <v>120151.48162316304</v>
+        <v>116434.54567536039</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="8"/>
-        <v>143209.06333244505</v>
+        <v>137476.27879904586</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="8"/>
-        <v>170032.35848684658</v>
+        <v>161855.71476153936</v>
       </c>
     </row>
     <row r="15" spans="1:111" x14ac:dyDescent="0.2">
@@ -1189,23 +1206,23 @@
       </c>
       <c r="P15" s="1">
         <f>P14*P21</f>
-        <v>17509.670387999995</v>
+        <v>17357.269187999995</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ref="Q15:T15" si="9">Q14*Q21</f>
-        <v>21074.455132567186</v>
+        <v>20640.585262516786</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="9"/>
-        <v>25231.811140864236</v>
+        <v>24451.25459182568</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="9"/>
-        <v>30073.903299813457</v>
+        <v>28870.018547799631</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="9"/>
-        <v>35706.795282237785</v>
+        <v>33989.700099923262</v>
       </c>
     </row>
     <row r="16" spans="1:111" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1226,387 +1243,387 @@
       </c>
       <c r="P16" s="3">
         <f t="shared" si="10"/>
-        <v>65869.712411999979</v>
+        <v>65296.393611999985</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="10"/>
-        <v>79280.093117752753</v>
+        <v>77647.915987563145</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="10"/>
-        <v>94919.670482298796</v>
+        <v>91983.291083534714</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" si="10"/>
-        <v>113135.1600326316</v>
+        <v>108606.26025124623</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="10"/>
-        <v>134325.5632046088</v>
+        <v>127866.01466161609</v>
       </c>
       <c r="U16" s="3">
-        <f>T16*(1+$W$20)</f>
-        <v>135668.81883665489</v>
+        <f t="shared" ref="U16:AZ16" si="11">T16*(1+$W$20)</f>
+        <v>129144.67480823226</v>
       </c>
       <c r="V16" s="3">
-        <f>U16*(1+$W$20)</f>
-        <v>137025.50702502145</v>
+        <f t="shared" si="11"/>
+        <v>130436.12155631458</v>
       </c>
       <c r="W16" s="3">
-        <f>V16*(1+$W$20)</f>
-        <v>138395.76209527167</v>
+        <f t="shared" si="11"/>
+        <v>131740.48277187772</v>
       </c>
       <c r="X16" s="3">
-        <f>W16*(1+$W$20)</f>
-        <v>139779.71971622438</v>
+        <f t="shared" si="11"/>
+        <v>133057.88759959649</v>
       </c>
       <c r="Y16" s="3">
-        <f>X16*(1+$W$20)</f>
-        <v>141177.51691338661</v>
+        <f t="shared" si="11"/>
+        <v>134388.46647559246</v>
       </c>
       <c r="Z16" s="3">
-        <f>Y16*(1+$W$20)</f>
-        <v>142589.29208252049</v>
+        <f t="shared" si="11"/>
+        <v>135732.35114034839</v>
       </c>
       <c r="AA16" s="3">
-        <f>Z16*(1+$W$20)</f>
-        <v>144015.18500334569</v>
+        <f t="shared" si="11"/>
+        <v>137089.67465175188</v>
       </c>
       <c r="AB16" s="3">
-        <f>AA16*(1+$W$20)</f>
-        <v>145455.33685337915</v>
+        <f t="shared" si="11"/>
+        <v>138460.57139826939</v>
       </c>
       <c r="AC16" s="3">
-        <f>AB16*(1+$W$20)</f>
-        <v>146909.89022191294</v>
+        <f t="shared" si="11"/>
+        <v>139845.17711225207</v>
       </c>
       <c r="AD16" s="3">
-        <f>AC16*(1+$W$20)</f>
-        <v>148378.98912413206</v>
+        <f t="shared" si="11"/>
+        <v>141243.62888337459</v>
       </c>
       <c r="AE16" s="3">
-        <f>AD16*(1+$W$20)</f>
-        <v>149862.77901537338</v>
+        <f t="shared" si="11"/>
+        <v>142656.06517220833</v>
       </c>
       <c r="AF16" s="3">
-        <f>AE16*(1+$W$20)</f>
-        <v>151361.40680552711</v>
+        <f t="shared" si="11"/>
+        <v>144082.6258239304</v>
       </c>
       <c r="AG16" s="3">
-        <f>AF16*(1+$W$20)</f>
-        <v>152875.02087358237</v>
+        <f t="shared" si="11"/>
+        <v>145523.45208216971</v>
       </c>
       <c r="AH16" s="3">
-        <f>AG16*(1+$W$20)</f>
-        <v>154403.77108231818</v>
+        <f t="shared" si="11"/>
+        <v>146978.68660299139</v>
       </c>
       <c r="AI16" s="3">
-        <f>AH16*(1+$W$20)</f>
-        <v>155947.80879314136</v>
+        <f t="shared" si="11"/>
+        <v>148448.47346902132</v>
       </c>
       <c r="AJ16" s="3">
-        <f>AI16*(1+$W$20)</f>
-        <v>157507.28688107277</v>
+        <f t="shared" si="11"/>
+        <v>149932.95820371155</v>
       </c>
       <c r="AK16" s="3">
-        <f>AJ16*(1+$W$20)</f>
-        <v>159082.3597498835</v>
+        <f t="shared" si="11"/>
+        <v>151432.28778574866</v>
       </c>
       <c r="AL16" s="3">
-        <f>AK16*(1+$W$20)</f>
-        <v>160673.18334738235</v>
+        <f t="shared" si="11"/>
+        <v>152946.61066360614</v>
       </c>
       <c r="AM16" s="3">
-        <f>AL16*(1+$W$20)</f>
-        <v>162279.91518085619</v>
+        <f t="shared" si="11"/>
+        <v>154476.07677024222</v>
       </c>
       <c r="AN16" s="3">
-        <f>AM16*(1+$W$20)</f>
-        <v>163902.71433266476</v>
+        <f t="shared" si="11"/>
+        <v>156020.83753794464</v>
       </c>
       <c r="AO16" s="3">
-        <f>AN16*(1+$W$20)</f>
-        <v>165541.74147599141</v>
+        <f t="shared" si="11"/>
+        <v>157581.04591332408</v>
       </c>
       <c r="AP16" s="3">
-        <f>AO16*(1+$W$20)</f>
-        <v>167197.15889075134</v>
+        <f t="shared" si="11"/>
+        <v>159156.85637245732</v>
       </c>
       <c r="AQ16" s="3">
-        <f>AP16*(1+$W$20)</f>
-        <v>168869.13047965884</v>
+        <f t="shared" si="11"/>
+        <v>160748.42493618189</v>
       </c>
       <c r="AR16" s="3">
-        <f>AQ16*(1+$W$20)</f>
-        <v>170557.82178445542</v>
+        <f t="shared" si="11"/>
+        <v>162355.90918554371</v>
       </c>
       <c r="AS16" s="3">
-        <f>AR16*(1+$W$20)</f>
-        <v>172263.40000229998</v>
+        <f t="shared" si="11"/>
+        <v>163979.46827739917</v>
       </c>
       <c r="AT16" s="3">
-        <f>AS16*(1+$W$20)</f>
-        <v>173986.03400232299</v>
+        <f t="shared" si="11"/>
+        <v>165619.26296017316</v>
       </c>
       <c r="AU16" s="3">
-        <f>AT16*(1+$W$20)</f>
-        <v>175725.89434234623</v>
+        <f t="shared" si="11"/>
+        <v>167275.45558977488</v>
       </c>
       <c r="AV16" s="3">
-        <f>AU16*(1+$W$20)</f>
-        <v>177483.15328576969</v>
+        <f t="shared" si="11"/>
+        <v>168948.21014567264</v>
       </c>
       <c r="AW16" s="3">
-        <f>AV16*(1+$W$20)</f>
-        <v>179257.98481862739</v>
+        <f t="shared" si="11"/>
+        <v>170637.69224712937</v>
       </c>
       <c r="AX16" s="3">
-        <f>AW16*(1+$W$20)</f>
-        <v>181050.56466681368</v>
+        <f t="shared" si="11"/>
+        <v>172344.06916960067</v>
       </c>
       <c r="AY16" s="3">
-        <f>AX16*(1+$W$20)</f>
-        <v>182861.07031348182</v>
+        <f t="shared" si="11"/>
+        <v>174067.50986129668</v>
       </c>
       <c r="AZ16" s="3">
-        <f>AY16*(1+$W$20)</f>
-        <v>184689.68101661664</v>
+        <f t="shared" si="11"/>
+        <v>175808.18495990965</v>
       </c>
       <c r="BA16" s="3">
-        <f>AZ16*(1+$W$20)</f>
-        <v>186536.5778267828</v>
+        <f t="shared" ref="BA16:CF16" si="12">AZ16*(1+$W$20)</f>
+        <v>177566.26680950876</v>
       </c>
       <c r="BB16" s="3">
-        <f>BA16*(1+$W$20)</f>
-        <v>188401.94360505062</v>
+        <f t="shared" si="12"/>
+        <v>179341.92947760384</v>
       </c>
       <c r="BC16" s="3">
-        <f>BB16*(1+$W$20)</f>
-        <v>190285.96304110112</v>
+        <f t="shared" si="12"/>
+        <v>181135.34877237989</v>
       </c>
       <c r="BD16" s="3">
-        <f>BC16*(1+$W$20)</f>
-        <v>192188.82267151214</v>
+        <f t="shared" si="12"/>
+        <v>182946.70226010369</v>
       </c>
       <c r="BE16" s="3">
-        <f>BD16*(1+$W$20)</f>
-        <v>194110.71089822726</v>
+        <f t="shared" si="12"/>
+        <v>184776.16928270474</v>
       </c>
       <c r="BF16" s="3">
-        <f>BE16*(1+$W$20)</f>
-        <v>196051.81800720954</v>
+        <f t="shared" si="12"/>
+        <v>186623.93097553178</v>
       </c>
       <c r="BG16" s="3">
-        <f>BF16*(1+$W$20)</f>
-        <v>198012.33618728165</v>
+        <f t="shared" si="12"/>
+        <v>188490.17028528711</v>
       </c>
       <c r="BH16" s="3">
-        <f>BG16*(1+$W$20)</f>
-        <v>199992.45954915448</v>
+        <f t="shared" si="12"/>
+        <v>190375.07198813997</v>
       </c>
       <c r="BI16" s="3">
-        <f>BH16*(1+$W$20)</f>
-        <v>201992.38414464603</v>
+        <f t="shared" si="12"/>
+        <v>192278.82270802138</v>
       </c>
       <c r="BJ16" s="3">
-        <f>BI16*(1+$W$20)</f>
-        <v>204012.30798609249</v>
+        <f t="shared" si="12"/>
+        <v>194201.61093510161</v>
       </c>
       <c r="BK16" s="3">
-        <f>BJ16*(1+$W$20)</f>
-        <v>206052.43106595342</v>
+        <f t="shared" si="12"/>
+        <v>196143.62704445262</v>
       </c>
       <c r="BL16" s="3">
-        <f>BK16*(1+$W$20)</f>
-        <v>208112.95537661295</v>
+        <f t="shared" si="12"/>
+        <v>198105.06331489715</v>
       </c>
       <c r="BM16" s="3">
-        <f>BL16*(1+$W$20)</f>
-        <v>210194.08493037909</v>
+        <f t="shared" si="12"/>
+        <v>200086.11394804611</v>
       </c>
       <c r="BN16" s="3">
-        <f>BM16*(1+$W$20)</f>
-        <v>212296.02577968288</v>
+        <f t="shared" si="12"/>
+        <v>202086.97508752657</v>
       </c>
       <c r="BO16" s="3">
-        <f>BN16*(1+$W$20)</f>
-        <v>214418.98603747971</v>
+        <f t="shared" si="12"/>
+        <v>204107.84483840186</v>
       </c>
       <c r="BP16" s="3">
-        <f>BO16*(1+$W$20)</f>
-        <v>216563.17589785453</v>
+        <f t="shared" si="12"/>
+        <v>206148.92328678587</v>
       </c>
       <c r="BQ16" s="3">
-        <f>BP16*(1+$W$20)</f>
-        <v>218728.80765683309</v>
+        <f t="shared" si="12"/>
+        <v>208210.41251965374</v>
       </c>
       <c r="BR16" s="3">
-        <f>BQ16*(1+$W$20)</f>
-        <v>220916.09573340142</v>
+        <f t="shared" si="12"/>
+        <v>210292.51664485029</v>
       </c>
       <c r="BS16" s="3">
-        <f>BR16*(1+$W$20)</f>
-        <v>223125.25669073543</v>
+        <f t="shared" si="12"/>
+        <v>212395.44181129878</v>
       </c>
       <c r="BT16" s="3">
-        <f>BS16*(1+$W$20)</f>
-        <v>225356.50925764279</v>
+        <f t="shared" si="12"/>
+        <v>214519.39622941177</v>
       </c>
       <c r="BU16" s="3">
-        <f>BT16*(1+$W$20)</f>
-        <v>227610.07435021922</v>
+        <f t="shared" si="12"/>
+        <v>216664.59019170588</v>
       </c>
       <c r="BV16" s="3">
-        <f>BU16*(1+$W$20)</f>
-        <v>229886.17509372142</v>
+        <f t="shared" si="12"/>
+        <v>218831.23609362295</v>
       </c>
       <c r="BW16" s="3">
-        <f>BV16*(1+$W$20)</f>
-        <v>232185.03684465864</v>
+        <f t="shared" si="12"/>
+        <v>221019.54845455918</v>
       </c>
       <c r="BX16" s="3">
-        <f>BW16*(1+$W$20)</f>
-        <v>234506.88721310522</v>
+        <f t="shared" si="12"/>
+        <v>223229.74393910478</v>
       </c>
       <c r="BY16" s="3">
-        <f>BX16*(1+$W$20)</f>
-        <v>236851.95608523628</v>
+        <f t="shared" si="12"/>
+        <v>225462.04137849584</v>
       </c>
       <c r="BZ16" s="3">
-        <f>BY16*(1+$W$20)</f>
-        <v>239220.47564608866</v>
+        <f t="shared" si="12"/>
+        <v>227716.66179228079</v>
       </c>
       <c r="CA16" s="3">
-        <f>BZ16*(1+$W$20)</f>
-        <v>241612.68040254954</v>
+        <f t="shared" si="12"/>
+        <v>229993.8284102036</v>
       </c>
       <c r="CB16" s="3">
-        <f>CA16*(1+$W$20)</f>
-        <v>244028.80720657503</v>
+        <f t="shared" si="12"/>
+        <v>232293.76669430564</v>
       </c>
       <c r="CC16" s="3">
-        <f>CB16*(1+$W$20)</f>
-        <v>246469.09527864077</v>
+        <f t="shared" si="12"/>
+        <v>234616.7043612487</v>
       </c>
       <c r="CD16" s="3">
-        <f>CC16*(1+$W$20)</f>
-        <v>248933.78623142719</v>
+        <f t="shared" si="12"/>
+        <v>236962.87140486119</v>
       </c>
       <c r="CE16" s="3">
-        <f>CD16*(1+$W$20)</f>
-        <v>251423.12409374147</v>
+        <f t="shared" si="12"/>
+        <v>239332.50011890981</v>
       </c>
       <c r="CF16" s="3">
-        <f>CE16*(1+$W$20)</f>
-        <v>253937.3553346789</v>
+        <f t="shared" si="12"/>
+        <v>241725.82512009892</v>
       </c>
       <c r="CG16" s="3">
-        <f>CF16*(1+$W$20)</f>
-        <v>256476.72888802568</v>
+        <f t="shared" ref="CG16:DG16" si="13">CF16*(1+$W$20)</f>
+        <v>244143.0833712999</v>
       </c>
       <c r="CH16" s="3">
-        <f>CG16*(1+$W$20)</f>
-        <v>259041.49617690593</v>
+        <f t="shared" si="13"/>
+        <v>246584.51420501291</v>
       </c>
       <c r="CI16" s="3">
-        <f>CH16*(1+$W$20)</f>
-        <v>261631.911138675</v>
+        <f t="shared" si="13"/>
+        <v>249050.35934706303</v>
       </c>
       <c r="CJ16" s="3">
-        <f>CI16*(1+$W$20)</f>
-        <v>264248.23025006178</v>
+        <f t="shared" si="13"/>
+        <v>251540.86294053367</v>
       </c>
       <c r="CK16" s="3">
-        <f>CJ16*(1+$W$20)</f>
-        <v>266890.71255256241</v>
+        <f t="shared" si="13"/>
+        <v>254056.27156993901</v>
       </c>
       <c r="CL16" s="3">
-        <f>CK16*(1+$W$20)</f>
-        <v>269559.61967808806</v>
+        <f t="shared" si="13"/>
+        <v>256596.83428563841</v>
       </c>
       <c r="CM16" s="3">
-        <f>CL16*(1+$W$20)</f>
-        <v>272255.21587486891</v>
+        <f t="shared" si="13"/>
+        <v>259162.8026284948</v>
       </c>
       <c r="CN16" s="3">
-        <f>CM16*(1+$W$20)</f>
-        <v>274977.76803361758</v>
+        <f t="shared" si="13"/>
+        <v>261754.43065477975</v>
       </c>
       <c r="CO16" s="3">
-        <f>CN16*(1+$W$20)</f>
-        <v>277727.54571395379</v>
+        <f t="shared" si="13"/>
+        <v>264371.97496132756</v>
       </c>
       <c r="CP16" s="3">
-        <f>CO16*(1+$W$20)</f>
-        <v>280504.82117109332</v>
+        <f t="shared" si="13"/>
+        <v>267015.69471094082</v>
       </c>
       <c r="CQ16" s="3">
-        <f>CP16*(1+$W$20)</f>
-        <v>283309.86938280426</v>
+        <f t="shared" si="13"/>
+        <v>269685.8516580502</v>
       </c>
       <c r="CR16" s="3">
-        <f>CQ16*(1+$W$20)</f>
-        <v>286142.9680766323</v>
+        <f t="shared" si="13"/>
+        <v>272382.71017463069</v>
       </c>
       <c r="CS16" s="3">
-        <f>CR16*(1+$W$20)</f>
-        <v>289004.3977573986</v>
+        <f t="shared" si="13"/>
+        <v>275106.53727637697</v>
       </c>
       <c r="CT16" s="3">
-        <f>CS16*(1+$W$20)</f>
-        <v>291894.44173497258</v>
+        <f t="shared" si="13"/>
+        <v>277857.60264914075</v>
       </c>
       <c r="CU16" s="3">
-        <f>CT16*(1+$W$20)</f>
-        <v>294813.38615232229</v>
+        <f t="shared" si="13"/>
+        <v>280636.17867563217</v>
       </c>
       <c r="CV16" s="3">
-        <f>CU16*(1+$W$20)</f>
-        <v>297761.52001384553</v>
+        <f t="shared" si="13"/>
+        <v>283442.54046238848</v>
       </c>
       <c r="CW16" s="3">
-        <f>CV16*(1+$W$20)</f>
-        <v>300739.135213984</v>
+        <f t="shared" si="13"/>
+        <v>286276.96586701239</v>
       </c>
       <c r="CX16" s="3">
-        <f>CW16*(1+$W$20)</f>
-        <v>303746.52656612382</v>
+        <f t="shared" si="13"/>
+        <v>289139.73552568251</v>
       </c>
       <c r="CY16" s="3">
-        <f>CX16*(1+$W$20)</f>
-        <v>306783.99183178507</v>
+        <f t="shared" si="13"/>
+        <v>292031.13288093935</v>
       </c>
       <c r="CZ16" s="3">
-        <f>CY16*(1+$W$20)</f>
-        <v>309851.83175010292</v>
+        <f t="shared" si="13"/>
+        <v>294951.44420974876</v>
       </c>
       <c r="DA16" s="3">
-        <f>CZ16*(1+$W$20)</f>
-        <v>312950.35006760398</v>
+        <f t="shared" si="13"/>
+        <v>297900.95865184627</v>
       </c>
       <c r="DB16" s="3">
-        <f>DA16*(1+$W$20)</f>
-        <v>316079.85356828</v>
+        <f t="shared" si="13"/>
+        <v>300879.96823836473</v>
       </c>
       <c r="DC16" s="3">
-        <f>DB16*(1+$W$20)</f>
-        <v>319240.65210396278</v>
+        <f t="shared" si="13"/>
+        <v>303888.76792074839</v>
       </c>
       <c r="DD16" s="3">
-        <f>DC16*(1+$W$20)</f>
-        <v>322433.05862500239</v>
+        <f t="shared" si="13"/>
+        <v>306927.65559995588</v>
       </c>
       <c r="DE16" s="3">
-        <f>DD16*(1+$W$20)</f>
-        <v>325657.38921125239</v>
+        <f t="shared" si="13"/>
+        <v>309996.93215595547</v>
       </c>
       <c r="DF16" s="3">
-        <f>DE16*(1+$W$20)</f>
-        <v>328913.96310336492</v>
+        <f t="shared" si="13"/>
+        <v>313096.901477515</v>
       </c>
       <c r="DG16" s="3">
-        <f>DF16*(1+$W$20)</f>
-        <v>332203.10273439856</v>
+        <f t="shared" si="13"/>
+        <v>316227.87049229012</v>
       </c>
     </row>
     <row r="17" spans="1:115" x14ac:dyDescent="0.2">
@@ -1631,7 +1648,7 @@
         <v>40</v>
       </c>
       <c r="W19" s="5">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:115" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1647,23 +1664,23 @@
         <v>0.21941112807816054</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:T20" si="11">P5/O5-1</f>
+        <f t="shared" ref="P20:T20" si="14">P5/O5-1</f>
         <v>0.1399999999999999</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -1682,11 +1699,11 @@
         <v>0.19497553697213643</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:O21" si="12">N15/N14</f>
+        <f t="shared" ref="N21:O21" si="15">N15/N14</f>
         <v>0.17563464620055663</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.11750137978857393</v>
       </c>
       <c r="P21" s="4">
@@ -1729,11 +1746,11 @@
         <v>0.78347297378418479</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" ref="N23:O23" si="13">N7/N5</f>
+        <f t="shared" ref="N23:O23" si="16">N7/N5</f>
         <v>0.8075714222176098</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.81665157050717019</v>
       </c>
       <c r="P23" s="6">
@@ -1754,7 +1771,7 @@
       <c r="V23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="10">
         <f>W22/Sheet1!D3</f>
         <v>601.00635296350208</v>
       </c>
@@ -1768,31 +1785,31 @@
         <v>0.24821411726367604</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:T24" si="14">N12/N5</f>
+        <f t="shared" ref="N24:T24" si="17">N12/N5</f>
         <v>0.34655527716416362</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.42176035404040096</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.43300660786256606</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.44074647570531467</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.44833154619120846</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.45576491526738427</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.46304961696203656</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -1800,7 +1817,7 @@
       </c>
       <c r="W24" s="4">
         <f>W23/Sheet1!D2-1</f>
-        <v>6.7108089840905993E-3</v>
+        <v>-6.8207204707748659E-2</v>
       </c>
     </row>
     <row r="25" spans="1:115" x14ac:dyDescent="0.2">
@@ -1812,31 +1829,31 @@
         <v>0.16541604850397482</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" ref="N25:T25" si="15">N30/N5</f>
+        <f t="shared" ref="N25:T25" si="18">N30/N5</f>
         <v>0.32666676550384721</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.32870316897769619</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42</v>
       </c>
     </row>
@@ -1849,11 +1866,11 @@
         <v>0.53525885652050875</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" ref="N26:O26" si="16">N11/N5</f>
+        <f t="shared" ref="N26:O26" si="19">N11/N5</f>
         <v>0.46101614505344618</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.39489121646676922</v>
       </c>
       <c r="P26" s="4">
@@ -1861,19 +1878,19 @@
         <v>0.38699339213743383</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" ref="Q26:T26" si="17">P26*0.98</f>
+        <f t="shared" ref="Q26:T26" si="20">P26*0.98</f>
         <v>0.37925352429468517</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.37166845380879149</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.36423508473261568</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.35695038303796334</v>
       </c>
     </row>
@@ -1905,19 +1922,19 @@
         <v>112518.68399999999</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ref="Q28:T28" si="18">Q5*0.6</f>
+        <f t="shared" ref="Q28:T28" si="21">Q5*0.6</f>
         <v>128271.29975999997</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>146229.28172639996</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>166701.38116809592</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>190039.57453162933</v>
       </c>
     </row>
@@ -1939,19 +1956,19 @@
         <v>33755.605199999998</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29:T29" si="19">Q5*0.18</f>
+        <f t="shared" ref="Q29:T29" si="22">Q5*0.18</f>
         <v>38481.38992799999</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>43868.784517919987</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>50010.414350428779</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>57011.8723594888</v>
       </c>
     </row>
@@ -1964,411 +1981,411 @@
         <v>19289</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" ref="N30:T30" si="20">N28-N29</f>
+        <f t="shared" ref="N30:T30" si="23">N28-N29</f>
         <v>44068</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>54072</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>78763.078799999988</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>89789.909831999976</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>102360.49720847997</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>116690.96681766714</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>133027.70217214053</v>
       </c>
       <c r="U30" s="3">
-        <f>T30*(1+$W$20)</f>
+        <f t="shared" ref="U30:AZ30" si="24">T30*(1+$W$20)</f>
         <v>134357.97919386195</v>
       </c>
       <c r="V30" s="3">
-        <f>U30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>135701.55898580057</v>
       </c>
       <c r="W30" s="3">
-        <f>V30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>137058.57457565857</v>
       </c>
       <c r="X30" s="3">
-        <f>W30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>138429.16032141514</v>
       </c>
       <c r="Y30" s="3">
-        <f>X30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>139813.45192462931</v>
       </c>
       <c r="Z30" s="3">
-        <f>Y30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>141211.5864438756</v>
       </c>
       <c r="AA30" s="3">
-        <f>Z30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>142623.70230831436</v>
       </c>
       <c r="AB30" s="3">
-        <f>AA30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>144049.9393313975</v>
       </c>
       <c r="AC30" s="3">
-        <f>AB30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>145490.43872471148</v>
       </c>
       <c r="AD30" s="3">
-        <f>AC30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>146945.34311195859</v>
       </c>
       <c r="AE30" s="3">
-        <f>AD30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>148414.79654307818</v>
       </c>
       <c r="AF30" s="3">
-        <f>AE30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>149898.94450850895</v>
       </c>
       <c r="AG30" s="3">
-        <f>AF30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>151397.93395359404</v>
       </c>
       <c r="AH30" s="3">
-        <f>AG30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>152911.91329312997</v>
       </c>
       <c r="AI30" s="3">
-        <f>AH30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>154441.03242606128</v>
       </c>
       <c r="AJ30" s="3">
-        <f>AI30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>155985.4427503219</v>
       </c>
       <c r="AK30" s="3">
-        <f>AJ30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>157545.29717782512</v>
       </c>
       <c r="AL30" s="3">
-        <f>AK30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>159120.75014960338</v>
       </c>
       <c r="AM30" s="3">
-        <f>AL30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>160711.95765109942</v>
       </c>
       <c r="AN30" s="3">
-        <f>AM30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>162319.07722761043</v>
       </c>
       <c r="AO30" s="3">
-        <f>AN30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>163942.26799988654</v>
       </c>
       <c r="AP30" s="3">
-        <f>AO30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>165581.69067988539</v>
       </c>
       <c r="AQ30" s="3">
-        <f>AP30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>167237.50758668425</v>
       </c>
       <c r="AR30" s="3">
-        <f>AQ30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>168909.8826625511</v>
       </c>
       <c r="AS30" s="3">
-        <f>AR30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>170598.9814891766</v>
       </c>
       <c r="AT30" s="3">
-        <f>AS30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>172304.97130406837</v>
       </c>
       <c r="AU30" s="3">
-        <f>AT30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>174028.02101710904</v>
       </c>
       <c r="AV30" s="3">
-        <f>AU30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>175768.30122728014</v>
       </c>
       <c r="AW30" s="3">
-        <f>AV30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>177525.98423955296</v>
       </c>
       <c r="AX30" s="3">
-        <f>AW30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>179301.24408194848</v>
       </c>
       <c r="AY30" s="3">
-        <f>AX30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>181094.25652276797</v>
       </c>
       <c r="AZ30" s="3">
-        <f>AY30*(1+$W$20)</f>
+        <f t="shared" si="24"/>
         <v>182905.19908799566</v>
       </c>
       <c r="BA30" s="3">
-        <f>AZ30*(1+$W$20)</f>
+        <f t="shared" ref="BA30:CF30" si="25">AZ30*(1+$W$20)</f>
         <v>184734.25107887562</v>
       </c>
       <c r="BB30" s="3">
-        <f>BA30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>186581.59358966438</v>
       </c>
       <c r="BC30" s="3">
-        <f>BB30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>188447.40952556103</v>
       </c>
       <c r="BD30" s="3">
-        <f>BC30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>190331.88362081663</v>
       </c>
       <c r="BE30" s="3">
-        <f>BD30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>192235.2024570248</v>
       </c>
       <c r="BF30" s="3">
-        <f>BE30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>194157.55448159506</v>
       </c>
       <c r="BG30" s="3">
-        <f>BF30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>196099.130026411</v>
       </c>
       <c r="BH30" s="3">
-        <f>BG30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>198060.12132667511</v>
       </c>
       <c r="BI30" s="3">
-        <f>BH30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>200040.72253994187</v>
       </c>
       <c r="BJ30" s="3">
-        <f>BI30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>202041.12976534129</v>
       </c>
       <c r="BK30" s="3">
-        <f>BJ30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>204061.54106299471</v>
       </c>
       <c r="BL30" s="3">
-        <f>BK30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>206102.15647362467</v>
       </c>
       <c r="BM30" s="3">
-        <f>BL30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>208163.1780383609</v>
       </c>
       <c r="BN30" s="3">
-        <f>BM30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>210244.80981874451</v>
       </c>
       <c r="BO30" s="3">
-        <f>BN30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>212347.25791693197</v>
       </c>
       <c r="BP30" s="3">
-        <f>BO30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>214470.73049610129</v>
       </c>
       <c r="BQ30" s="3">
-        <f>BP30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>216615.4378010623</v>
       </c>
       <c r="BR30" s="3">
-        <f>BQ30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>218781.59217907293</v>
       </c>
       <c r="BS30" s="3">
-        <f>BR30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>220969.40810086366</v>
       </c>
       <c r="BT30" s="3">
-        <f>BS30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>223179.10218187229</v>
       </c>
       <c r="BU30" s="3">
-        <f>BT30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>225410.89320369103</v>
       </c>
       <c r="BV30" s="3">
-        <f>BU30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>227665.00213572793</v>
       </c>
       <c r="BW30" s="3">
-        <f>BV30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>229941.65215708522</v>
       </c>
       <c r="BX30" s="3">
-        <f>BW30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>232241.06867865607</v>
       </c>
       <c r="BY30" s="3">
-        <f>BX30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>234563.47936544262</v>
       </c>
       <c r="BZ30" s="3">
-        <f>BY30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>236909.11415909705</v>
       </c>
       <c r="CA30" s="3">
-        <f>BZ30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>239278.20530068802</v>
       </c>
       <c r="CB30" s="3">
-        <f>CA30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>241670.98735369489</v>
       </c>
       <c r="CC30" s="3">
-        <f>CB30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>244087.69722723184</v>
       </c>
       <c r="CD30" s="3">
-        <f>CC30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>246528.57419950416</v>
       </c>
       <c r="CE30" s="3">
-        <f>CD30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>248993.85994149919</v>
       </c>
       <c r="CF30" s="3">
-        <f>CE30*(1+$W$20)</f>
+        <f t="shared" si="25"/>
         <v>251483.7985409142</v>
       </c>
       <c r="CG30" s="3">
-        <f>CF30*(1+$W$20)</f>
+        <f t="shared" ref="CG30:DK30" si="26">CF30*(1+$W$20)</f>
         <v>253998.63652632333</v>
       </c>
       <c r="CH30" s="3">
-        <f>CG30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>256538.62289158656</v>
       </c>
       <c r="CI30" s="3">
-        <f>CH30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>259104.00912050242</v>
       </c>
       <c r="CJ30" s="3">
-        <f>CI30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>261695.04921170746</v>
       </c>
       <c r="CK30" s="3">
-        <f>CJ30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>264311.99970382452</v>
       </c>
       <c r="CL30" s="3">
-        <f>CK30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>266955.11970086279</v>
       </c>
       <c r="CM30" s="3">
-        <f>CL30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>269624.67089787143</v>
       </c>
       <c r="CN30" s="3">
-        <f>CM30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>272320.91760685015</v>
       </c>
       <c r="CO30" s="3">
-        <f>CN30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>275044.12678291864</v>
       </c>
       <c r="CP30" s="3">
-        <f>CO30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>277794.56805074785</v>
       </c>
       <c r="CQ30" s="3">
-        <f>CP30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>280572.51373125531</v>
       </c>
       <c r="CR30" s="3">
-        <f>CQ30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>283378.23886856786</v>
       </c>
       <c r="CS30" s="3">
-        <f>CR30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>286212.02125725354</v>
       </c>
       <c r="CT30" s="3">
-        <f>CS30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>289074.14146982605</v>
       </c>
       <c r="CU30" s="3">
-        <f>CT30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>291964.8828845243</v>
       </c>
       <c r="CV30" s="3">
-        <f>CU30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>294884.53171336954</v>
       </c>
       <c r="CW30" s="3">
-        <f>CV30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>297833.37703050324</v>
       </c>
       <c r="CX30" s="3">
-        <f>CW30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>300811.71080080827</v>
       </c>
       <c r="CY30" s="3">
-        <f>CX30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>303819.82790881634</v>
       </c>
       <c r="CZ30" s="3">
-        <f>CY30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>306858.02618790453</v>
       </c>
       <c r="DA30" s="3">
-        <f>CZ30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>309926.60644978361</v>
       </c>
       <c r="DB30" s="3">
-        <f>DA30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>313025.87251428142</v>
       </c>
       <c r="DC30" s="3">
-        <f>DB30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>316156.13123942423</v>
       </c>
       <c r="DD30" s="3">
-        <f>DC30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>319317.69255181844</v>
       </c>
       <c r="DE30" s="3">
-        <f>DD30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>322510.86947733664</v>
       </c>
       <c r="DF30" s="3">
-        <f>DE30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>325735.97817210999</v>
       </c>
       <c r="DG30" s="3">
-        <f>DF30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>328993.33795383107</v>
       </c>
       <c r="DH30" s="3">
-        <f>DG30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>332283.27133336937</v>
       </c>
       <c r="DI30" s="3">
-        <f>DH30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>335606.10404670308</v>
       </c>
       <c r="DJ30" s="3">
-        <f>DI30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>338962.16508717014</v>
       </c>
       <c r="DK30" s="3">
-        <f>DJ30*(1+$W$20)</f>
+        <f t="shared" si="26"/>
         <v>342351.78673804185</v>
       </c>
     </row>
@@ -2400,23 +2417,23 @@
       </c>
       <c r="P32" s="1">
         <f>O32+P16</f>
-        <v>102155.71241199998</v>
+        <v>101582.39361199999</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" ref="Q32:T32" si="21">P32+Q16</f>
-        <v>181435.80552975275</v>
+        <f t="shared" ref="Q32:T32" si="27">P32+Q16</f>
+        <v>179230.30959956313</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="21"/>
-        <v>276355.47601205157</v>
+        <f t="shared" si="27"/>
+        <v>271213.60068309784</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="21"/>
-        <v>389490.63604468317</v>
+        <f t="shared" si="27"/>
+        <v>379819.86093434406</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="21"/>
-        <v>523816.19924929197</v>
+        <f t="shared" si="27"/>
+        <v>507685.87559596018</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
